--- a/projet/arbitrage.xlsx
+++ b/projet/arbitrage.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BTC_USD" sheetId="1" r:id="rId1"/>
-    <sheet name="ETH_USD" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BTC_USD" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETH_USD" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -38,7 +38,22 @@
     <t>Spread B</t>
   </si>
   <si>
-    <t>2017-10-09 11:36:44</t>
+    <t>2017-10-09 13:20:22</t>
+  </si>
+  <si>
+    <t>BITS/BITF</t>
+  </si>
+  <si>
+    <t>BITS/OK</t>
+  </si>
+  <si>
+    <t>BITS/CXIO</t>
+  </si>
+  <si>
+    <t>2017-10-09 13:20:46</t>
+  </si>
+  <si>
+    <t>GDAX/BITF</t>
   </si>
   <si>
     <t>GDAX/OK</t>
@@ -47,87 +62,73 @@
     <t>GDAX/CXIO</t>
   </si>
   <si>
-    <t>2017-10-09 11:36:17</t>
-  </si>
-  <si>
-    <t>BITS/OK</t>
-  </si>
-  <si>
-    <t>BITS/CXIO</t>
-  </si>
-  <si>
-    <t>GDAX/BITF</t>
-  </si>
-  <si>
-    <t>2017-10-09 11:36:59</t>
+    <t>BITS/GDAX</t>
+  </si>
+  <si>
+    <t>2017-10-09 13:20:59</t>
+  </si>
+  <si>
+    <t>CXIO/BITF</t>
   </si>
   <si>
     <t>CXIO/OK</t>
   </si>
   <si>
-    <t>2017-10-09 11:36:58</t>
-  </si>
-  <si>
-    <t>BITF/OK</t>
-  </si>
-  <si>
-    <t>BITS/BITF</t>
+    <t>2017-10-09 13:20:30</t>
+  </si>
+  <si>
+    <t>OK/BITF</t>
+  </si>
+  <si>
+    <t>2017-10-09 13:21:17</t>
+  </si>
+  <si>
+    <t>2017-10-09 13:21:08</t>
+  </si>
+  <si>
+    <t>KRKN/CXIO</t>
+  </si>
+  <si>
+    <t>2017-10-09 13:20:51</t>
   </si>
   <si>
     <t>BITF/CXIO</t>
   </si>
   <si>
-    <t>BITS/GDAX</t>
-  </si>
-  <si>
-    <t>2017-10-09 11:36:45</t>
-  </si>
-  <si>
-    <t>2017-10-09 11:37:17</t>
-  </si>
-  <si>
-    <t>2017-10-09 11:37:03</t>
-  </si>
-  <si>
-    <t>KRKN/CXIO</t>
-  </si>
-  <si>
-    <t>GDAX/KRKN</t>
+    <t>KRKN/BITF</t>
+  </si>
+  <si>
+    <t>KRKN/GDAX</t>
   </si>
   <si>
     <t>BITS/KRKN</t>
-  </si>
-  <si>
-    <t>GDAX/BITS</t>
-  </si>
-  <si>
-    <t>KRKN/BITF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -143,17 +144,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -441,12 +441,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -478,20 +484,20 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>-0.135864885912259</v>
-      </c>
-      <c r="D2">
-        <v>8366.9998</v>
-      </c>
-      <c r="E2">
-        <v>405.997</v>
-      </c>
-      <c r="F2">
-        <v>0.01000000000021828</v>
-      </c>
-      <c r="G2">
-        <v>17.82000000000062</v>
+      <c r="C2" t="n">
+        <v>-0.03513368638329727</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10294.7312</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30686.2297</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.020000000000437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.300000000000182</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -501,158 +507,158 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>-0.1921977875599724</v>
-      </c>
-      <c r="D3">
-        <v>8366.9998</v>
-      </c>
-      <c r="E3">
-        <v>1019.041</v>
-      </c>
-      <c r="F3">
-        <v>0.01000000000021828</v>
-      </c>
-      <c r="G3">
-        <v>2.044400000000678</v>
+      <c r="C3" t="n">
+        <v>-0.04027895925159272</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10294.7312</v>
+      </c>
+      <c r="E3" t="n">
+        <v>398.162</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.020000000000437</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21.15999999999985</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>-0.2086995080156449</v>
-      </c>
-      <c r="D4">
-        <v>9951.313399999999</v>
-      </c>
-      <c r="E4">
-        <v>405.997</v>
-      </c>
-      <c r="F4">
-        <v>8.880000000000109</v>
-      </c>
-      <c r="G4">
-        <v>17.82000000000062</v>
+      <c r="C4" t="n">
+        <v>-0.05218621229953863</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10294.7312</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1056.5838</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.020000000000437</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.708499999999731</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>-0.2650733838498616</v>
-      </c>
-      <c r="D5">
-        <v>9951.313399999999</v>
-      </c>
-      <c r="E5">
-        <v>1019.041</v>
-      </c>
-      <c r="F5">
-        <v>8.880000000000109</v>
-      </c>
-      <c r="G5">
-        <v>2.044400000000678</v>
+      <c r="C5" t="n">
+        <v>-0.2376013099010507</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8406.5501</v>
+      </c>
+      <c r="E5" t="n">
+        <v>30686.2297</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.300000000000182</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>-0.3470700067961914</v>
-      </c>
-      <c r="D6">
-        <v>8366.9998</v>
-      </c>
-      <c r="E6">
-        <v>30339.3547</v>
-      </c>
-      <c r="F6">
+      <c r="C6" t="n">
+        <v>-0.2427569966222757</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8406.5501</v>
+      </c>
+      <c r="E6" t="n">
+        <v>398.162</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.01000000000021828</v>
       </c>
-      <c r="G6">
-        <v>0.0999999999994543</v>
+      <c r="G6" t="n">
+        <v>21.15999999999985</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>-0.3887779324720184</v>
-      </c>
-      <c r="D7">
-        <v>1019.041</v>
-      </c>
-      <c r="E7">
-        <v>405.997</v>
-      </c>
-      <c r="F7">
-        <v>2.044400000000678</v>
-      </c>
-      <c r="G7">
-        <v>17.82000000000062</v>
+      <c r="C7" t="n">
+        <v>-0.2546883495353229</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8406.5501</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1056.5838</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.708499999999731</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>-0.3922393941599344</v>
-      </c>
-      <c r="D8">
-        <v>30339.3547</v>
-      </c>
-      <c r="E8">
-        <v>405.997</v>
-      </c>
-      <c r="F8">
-        <v>0.0999999999994543</v>
-      </c>
-      <c r="G8">
-        <v>17.82000000000062</v>
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.2984710388798486</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10294.7312</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8406.5501</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.020000000000437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01000000000021828</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>-0.420058250633243</v>
-      </c>
-      <c r="D9">
-        <v>9951.313399999999</v>
-      </c>
-      <c r="E9">
-        <v>30339.3547</v>
-      </c>
-      <c r="F9">
-        <v>8.880000000000109</v>
-      </c>
-      <c r="G9">
-        <v>0.0999999999994543</v>
+        <v>17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.5298227734767992</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1056.5838</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30686.2297</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.708499999999731</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.300000000000182</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -660,59 +666,295 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>-0.4487165230530463</v>
-      </c>
-      <c r="D10">
-        <v>30339.3547</v>
-      </c>
-      <c r="E10">
-        <v>1019.041</v>
-      </c>
-      <c r="F10">
-        <v>0.0999999999994543</v>
-      </c>
-      <c r="G10">
-        <v>2.044400000000678</v>
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.5349934905090026</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1056.5838</v>
+      </c>
+      <c r="E10" t="n">
+        <v>398.162</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.708499999999731</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21.15999999999985</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11">
-        <v>-0.5745718923097667</v>
-      </c>
-      <c r="D11">
-        <v>9951.313399999999</v>
-      </c>
-      <c r="E11">
-        <v>8366.9998</v>
-      </c>
-      <c r="F11">
-        <v>8.880000000000109</v>
-      </c>
-      <c r="G11">
+      <c r="C11" t="n">
+        <v>-0.8565719265867056</v>
+      </c>
+      <c r="D11" t="n">
+        <v>398.162</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30686.2297</v>
+      </c>
+      <c r="F11" t="n">
+        <v>21.15999999999985</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.300000000000182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01731217786287827</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10288.6302</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30686.2297</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.03702134327648022</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10288.6302</v>
+      </c>
+      <c r="E14" t="n">
+        <v>398.162</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>21.02999999999975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.04980496524495134</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10288.6302</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1056.5838</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.618900000000394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.1854858351184818</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8406.5501</v>
+      </c>
+      <c r="E16" t="n">
+        <v>30686.2297</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.01000000000021828</v>
       </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.2399295626382183</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8406.5501</v>
+      </c>
+      <c r="E17" t="n">
+        <v>398.162</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G17" t="n">
+        <v>21.02999999999975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.2527391140269759</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8406.5501</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1056.5838</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.618900000000394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.2980340085049298</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10288.6302</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8406.5501</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.4775553670825707</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1056.5838</v>
+      </c>
+      <c r="E20" t="n">
+        <v>30686.2297</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.618900000000394</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.5321578137409381</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1056.5838</v>
+      </c>
+      <c r="E21" t="n">
+        <v>398.162</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.618900000000394</v>
+      </c>
+      <c r="G21" t="n">
+        <v>21.02999999999975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.8041346369647602</v>
+      </c>
+      <c r="D22" t="n">
+        <v>398.162</v>
+      </c>
+      <c r="E22" t="n">
+        <v>30686.2297</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21.02999999999975</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -739,25 +981,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>0.3677078214686793</v>
-      </c>
-      <c r="D2">
-        <v>69272.31909999999</v>
-      </c>
-      <c r="E2">
-        <v>3803.1151</v>
-      </c>
-      <c r="F2">
-        <v>0.009999999999990905</v>
-      </c>
-      <c r="G2">
-        <v>0.3063995699999964</v>
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6615837570626464</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16130.6188</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3747.3801</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.010000000000048</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3609282399999643</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -765,209 +1007,439 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.2013767827733161</v>
-      </c>
-      <c r="D3">
-        <v>14942.8646</v>
-      </c>
-      <c r="E3">
-        <v>3803.1151</v>
-      </c>
-      <c r="F3">
-        <v>0.2900000000000205</v>
-      </c>
-      <c r="G3">
-        <v>0.3063995699999964</v>
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.648048543313129</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24445.6554</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3747.3801</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3609282399999643</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>-0.01154906892319104</v>
-      </c>
-      <c r="D4">
-        <v>25384.7718</v>
-      </c>
-      <c r="E4">
-        <v>3803.1151</v>
-      </c>
-      <c r="F4">
-        <v>0.04000000000002046</v>
-      </c>
-      <c r="G4">
-        <v>0.3063995699999964</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5307031032511498</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69200.1783</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3747.3801</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3609282399999643</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>-0.04744228392344939</v>
-      </c>
-      <c r="D5">
-        <v>116355.0599</v>
-      </c>
-      <c r="E5">
-        <v>3803.1151</v>
-      </c>
-      <c r="F5">
-        <v>0.009999999999990905</v>
-      </c>
-      <c r="G5">
-        <v>0.3063995699999964</v>
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05224455751072302</v>
+      </c>
+      <c r="D5" t="n">
+        <v>115329.407</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3747.3801</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3899999999999864</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3609282399999643</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>-0.1876225545521162</v>
-      </c>
-      <c r="D6">
-        <v>69272.31909999999</v>
-      </c>
-      <c r="E6">
-        <v>116355.0599</v>
-      </c>
-      <c r="F6">
-        <v>0.009999999999990905</v>
-      </c>
-      <c r="G6">
-        <v>0.009999999999990905</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1163664152631127</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16130.6188</v>
+      </c>
+      <c r="E6" t="n">
+        <v>115329.407</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.010000000000048</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3899999999999864</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>-0.2333912263449755</v>
-      </c>
-      <c r="D7">
-        <v>69272.31909999999</v>
-      </c>
-      <c r="E7">
-        <v>25384.7718</v>
-      </c>
-      <c r="F7">
-        <v>0.009999999999990905</v>
-      </c>
-      <c r="G7">
-        <v>0.04000000000002046</v>
+        <v>26</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.1300076275000949</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24445.6554</v>
+      </c>
+      <c r="E7" t="n">
+        <v>115329.407</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3899999999999864</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>-0.3548806890338245</v>
-      </c>
-      <c r="D8">
-        <v>14942.8646</v>
-      </c>
-      <c r="E8">
-        <v>116355.0599</v>
-      </c>
-      <c r="F8">
-        <v>0.2900000000000205</v>
-      </c>
-      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.2482720363635759</v>
+      </c>
+      <c r="D8" t="n">
+        <v>69200.1783</v>
+      </c>
+      <c r="E8" t="n">
+        <v>115329.407</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3899999999999864</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>-0.4007257692937837</v>
-      </c>
-      <c r="D9">
-        <v>14942.8646</v>
-      </c>
-      <c r="E9">
-        <v>25384.7718</v>
-      </c>
-      <c r="F9">
-        <v>0.2900000000000205</v>
-      </c>
-      <c r="G9">
-        <v>0.04000000000002046</v>
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.3723163628008227</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16130.6188</v>
+      </c>
+      <c r="E9" t="n">
+        <v>69200.1783</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.010000000000048</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.009999999999990905</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10">
-        <v>-0.4289287872456811</v>
-      </c>
-      <c r="D10">
-        <v>69272.31909999999</v>
-      </c>
-      <c r="E10">
-        <v>14942.8646</v>
-      </c>
-      <c r="F10">
+      <c r="C10" t="n">
+        <v>-0.3859924491316361</v>
+      </c>
+      <c r="D10" t="n">
+        <v>24445.6554</v>
+      </c>
+      <c r="E10" t="n">
+        <v>69200.1783</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.009999999999990905</v>
-      </c>
-      <c r="G10">
-        <v>0.2900000000000205</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11">
-        <v>-0.5689933466413638</v>
-      </c>
-      <c r="D11">
-        <v>25384.7718</v>
-      </c>
-      <c r="E11">
-        <v>116355.0599</v>
-      </c>
-      <c r="F11">
-        <v>0.04000000000002046</v>
-      </c>
-      <c r="G11">
+      <c r="C11" t="n">
+        <v>-0.5880999286369448</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16130.6188</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24445.6554</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.010000000000048</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6943039205155298</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16118.92</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3747.3801</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.839999999999975</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3609196300000121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6284066536712908</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24445.6554</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3747.3801</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3609196300000121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5307031032511498</v>
+      </c>
+      <c r="D15" t="n">
+        <v>69200.1783</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3747.3801</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.009999999999990905</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.3609196300000121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1733695436353825</v>
+      </c>
+      <c r="D16" t="n">
+        <v>115329.407</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3747.3801</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3609196300000121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.08010783407843175</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16118.92</v>
+      </c>
+      <c r="E17" t="n">
+        <v>115329.407</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.839999999999975</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.1465189850205068</v>
+      </c>
+      <c r="D18" t="n">
+        <v>24445.6554</v>
+      </c>
+      <c r="E18" t="n">
+        <v>115329.407</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.2449844532449433</v>
+      </c>
+      <c r="D19" t="n">
+        <v>69200.1783</v>
+      </c>
+      <c r="E19" t="n">
+        <v>115329.407</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.33925565253639</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16118.92</v>
+      </c>
+      <c r="E20" t="n">
+        <v>69200.1783</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.839999999999975</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.4058387687696741</v>
+      </c>
+      <c r="D21" t="n">
+        <v>24445.6554</v>
+      </c>
+      <c r="E21" t="n">
+        <v>69200.1783</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5549681434167032</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16118.92</v>
+      </c>
+      <c r="E22" t="n">
+        <v>24445.6554</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.839999999999975</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.06000000000000227</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/projet/arbitrage.xlsx
+++ b/projet/arbitrage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -38,70 +38,205 @@
     <t>Spread B</t>
   </si>
   <si>
-    <t>2017-10-09 13:20:22</t>
+    <t>2017-10-13 14:41:48</t>
+  </si>
+  <si>
+    <t>GDAX/OK</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:41:53</t>
+  </si>
+  <si>
+    <t>CXIO/OK</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:41:39</t>
+  </si>
+  <si>
+    <t>BITS/OK</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:41:09</t>
+  </si>
+  <si>
+    <t>BITF/OK</t>
+  </si>
+  <si>
+    <t>GDAX/BITF</t>
+  </si>
+  <si>
+    <t>GDAX/CXIO</t>
+  </si>
+  <si>
+    <t>GDAX/BITS</t>
+  </si>
+  <si>
+    <t>CXIO/BITF</t>
   </si>
   <si>
     <t>BITS/BITF</t>
   </si>
   <si>
-    <t>BITS/OK</t>
-  </si>
-  <si>
     <t>BITS/CXIO</t>
   </si>
   <si>
-    <t>2017-10-09 13:20:46</t>
+    <t>2017-10-13 14:42:49</t>
   </si>
   <si>
-    <t>GDAX/BITF</t>
+    <t>2017-10-13 14:42:53</t>
   </si>
   <si>
-    <t>GDAX/OK</t>
+    <t>2017-10-13 14:42:41</t>
   </si>
   <si>
-    <t>GDAX/CXIO</t>
+    <t>2017-10-13 14:43:09</t>
+  </si>
+  <si>
+    <t>CXIO/BITS</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:43:49</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:43:41</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:43:53</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:44:10</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:44:39</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:54:49</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:54:53</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:54:39</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:55:11</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:55:49</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:55:53</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:55:40</t>
   </si>
   <si>
     <t>BITS/GDAX</t>
   </si>
   <si>
-    <t>2017-10-09 13:20:59</t>
+    <t>2017-10-13 14:56:09</t>
   </si>
   <si>
-    <t>CXIO/BITF</t>
+    <t>2017-10-13 14:56:49</t>
   </si>
   <si>
-    <t>CXIO/OK</t>
+    <t>2017-10-13 14:57:39</t>
   </si>
   <si>
-    <t>2017-10-09 13:20:30</t>
+    <t>2017-10-13 14:56:53</t>
   </si>
   <si>
-    <t>OK/BITF</t>
+    <t>2017-10-13 14:57:10</t>
   </si>
   <si>
-    <t>2017-10-09 13:21:17</t>
+    <t>2017-10-13 14:57:54</t>
   </si>
   <si>
-    <t>2017-10-09 13:21:08</t>
+    <t>2017-10-13 14:57:55</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:58:09</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:58:48</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:58:39</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:58:54</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:59:09</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:41:50</t>
+  </si>
+  <si>
+    <t>KRKN/BITS</t>
+  </si>
+  <si>
+    <t>KRKN/BITF</t>
   </si>
   <si>
     <t>KRKN/CXIO</t>
   </si>
   <si>
-    <t>2017-10-09 13:20:51</t>
+    <t>2017-10-13 14:41:54</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:42:16</t>
+  </si>
+  <si>
+    <t>BITF/BITS</t>
+  </si>
+  <si>
+    <t>KRKN/GDAX</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:42:50</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:42:40</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:42:54</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:43:39</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:43:54</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:44:38</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:44:49</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:57:40</t>
   </si>
   <si>
     <t>BITF/CXIO</t>
   </si>
   <si>
-    <t>KRKN/BITF</t>
+    <t>2017-10-13 14:58:10</t>
   </si>
   <si>
-    <t>KRKN/GDAX</t>
+    <t>2017-10-13 14:58:49</t>
   </si>
   <si>
-    <t>BITS/KRKN</t>
+    <t>2017-10-13 14:58:38</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:59:10</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:59:39</t>
+  </si>
+  <si>
+    <t>2017-10-13 14:59:40</t>
   </si>
 </sst>
 </file>
@@ -446,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,134 +620,134 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03513368638329727</v>
+        <v>1.713934795065283</v>
       </c>
       <c r="D2" t="n">
-        <v>10294.7312</v>
+        <v>29006.6374</v>
       </c>
       <c r="E2" t="n">
-        <v>30686.2297</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.020000000000437</v>
+        <v>0.430000000000291</v>
       </c>
       <c r="G2" t="n">
-        <v>4.300000000000182</v>
+        <v>40.98999999999978</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04027895925159272</v>
+        <v>1.401713634024692</v>
       </c>
       <c r="D3" t="n">
-        <v>10294.7312</v>
+        <v>3974.7732</v>
       </c>
       <c r="E3" t="n">
-        <v>398.162</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.020000000000437</v>
+        <v>2.665999999999258</v>
       </c>
       <c r="G3" t="n">
-        <v>21.15999999999985</v>
+        <v>40.98999999999978</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05218621229953863</v>
+        <v>1.352618361340597</v>
       </c>
       <c r="D4" t="n">
-        <v>10294.7312</v>
+        <v>27718.8153</v>
       </c>
       <c r="E4" t="n">
-        <v>1056.5838</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6.020000000000437</v>
+        <v>6.109999999999673</v>
       </c>
       <c r="G4" t="n">
-        <v>6.708499999999731</v>
+        <v>40.98999999999978</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2376013099010507</v>
+        <v>1.136455240400646</v>
       </c>
       <c r="D5" t="n">
-        <v>8406.5501</v>
+        <v>101459.6408</v>
       </c>
       <c r="E5" t="n">
-        <v>30686.2297</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01000000000021828</v>
+        <v>0.1000000000003638</v>
       </c>
       <c r="G5" t="n">
-        <v>4.300000000000182</v>
+        <v>40.98999999999978</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2427569966222757</v>
+        <v>-0.01589417140156152</v>
       </c>
       <c r="D6" t="n">
-        <v>8406.5501</v>
+        <v>29006.6374</v>
       </c>
       <c r="E6" t="n">
-        <v>398.162</v>
+        <v>101459.6408</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01000000000021828</v>
+        <v>0.430000000000291</v>
       </c>
       <c r="G6" t="n">
-        <v>21.15999999999985</v>
+        <v>0.1000000000003638</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2546883495353229</v>
+        <v>-0.1289053366544783</v>
       </c>
       <c r="D7" t="n">
-        <v>8406.5501</v>
+        <v>29006.6374</v>
       </c>
       <c r="E7" t="n">
-        <v>1056.5838</v>
+        <v>3974.7732</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01000000000021828</v>
+        <v>0.430000000000291</v>
       </c>
       <c r="G7" t="n">
-        <v>6.708499999999731</v>
+        <v>2.665999999999258</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -620,91 +755,91 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2984710388798486</v>
+        <v>-0.2387612531626034</v>
       </c>
       <c r="D8" t="n">
-        <v>10294.7312</v>
+        <v>29006.6374</v>
       </c>
       <c r="E8" t="n">
-        <v>8406.5501</v>
+        <v>27718.8153</v>
       </c>
       <c r="F8" t="n">
-        <v>6.020000000000437</v>
+        <v>0.430000000000291</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01000000000021828</v>
+        <v>6.109999999999673</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5298227734767992</v>
+        <v>-0.3336104065117649</v>
       </c>
       <c r="D9" t="n">
-        <v>1056.5838</v>
+        <v>3974.7732</v>
       </c>
       <c r="E9" t="n">
-        <v>30686.2297</v>
+        <v>101459.6408</v>
       </c>
       <c r="F9" t="n">
-        <v>6.708499999999731</v>
+        <v>2.665999999999258</v>
       </c>
       <c r="G9" t="n">
-        <v>4.300000000000182</v>
+        <v>0.1000000000003638</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5349934905090026</v>
+        <v>-0.383569753107339</v>
       </c>
       <c r="D10" t="n">
-        <v>1056.5838</v>
+        <v>27718.8153</v>
       </c>
       <c r="E10" t="n">
-        <v>398.162</v>
+        <v>101459.6408</v>
       </c>
       <c r="F10" t="n">
-        <v>6.708499999999731</v>
+        <v>6.109999999999673</v>
       </c>
       <c r="G10" t="n">
-        <v>21.15999999999985</v>
+        <v>0.1000000000003638</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8565719265867056</v>
+        <v>-0.4969963667874068</v>
       </c>
       <c r="D11" t="n">
-        <v>398.162</v>
+        <v>27718.8153</v>
       </c>
       <c r="E11" t="n">
-        <v>30686.2297</v>
+        <v>3974.7732</v>
       </c>
       <c r="F11" t="n">
-        <v>21.15999999999985</v>
+        <v>6.109999999999673</v>
       </c>
       <c r="G11" t="n">
-        <v>4.300000000000182</v>
+        <v>2.665999999999258</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -715,134 +850,134 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01731217786287827</v>
+        <v>1.758844329392053</v>
       </c>
       <c r="D13" t="n">
-        <v>10288.6302</v>
+        <v>29019.9405</v>
       </c>
       <c r="E13" t="n">
-        <v>30686.2297</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>0.01000000000021828</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>35.98999999999978</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.03702134327648022</v>
+        <v>1.519373219646629</v>
       </c>
       <c r="D14" t="n">
-        <v>10288.6302</v>
+        <v>3977.9478</v>
       </c>
       <c r="E14" t="n">
-        <v>398.162</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>18.0012999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>21.02999999999975</v>
+        <v>35.98999999999978</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.04980496524495134</v>
+        <v>1.503893233361058</v>
       </c>
       <c r="D15" t="n">
-        <v>10288.6302</v>
+        <v>27732.9731</v>
       </c>
       <c r="E15" t="n">
-        <v>1056.5838</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>1.979999999999563</v>
       </c>
       <c r="G15" t="n">
-        <v>6.618900000000394</v>
+        <v>35.98999999999978</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1854858351184818</v>
+        <v>1.18608556586372</v>
       </c>
       <c r="D16" t="n">
-        <v>8406.5501</v>
+        <v>101691.4843</v>
       </c>
       <c r="E16" t="n">
-        <v>30686.2297</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01000000000021828</v>
+        <v>0.6000000000003638</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>35.98999999999978</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2399295626382183</v>
+        <v>-0.02901203006630448</v>
       </c>
       <c r="D17" t="n">
-        <v>8406.5501</v>
+        <v>29019.9405</v>
       </c>
       <c r="E17" t="n">
-        <v>398.162</v>
+        <v>101691.4843</v>
       </c>
       <c r="F17" t="n">
         <v>0.01000000000021828</v>
       </c>
       <c r="G17" t="n">
-        <v>21.02999999999975</v>
+        <v>0.6000000000003638</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2527391140269759</v>
+        <v>-0.2728411906056387</v>
       </c>
       <c r="D18" t="n">
-        <v>8406.5501</v>
+        <v>3977.9478</v>
       </c>
       <c r="E18" t="n">
-        <v>1056.5838</v>
+        <v>101691.4843</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01000000000021828</v>
+        <v>18.0012999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>6.618900000000394</v>
+        <v>0.6000000000003638</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -850,91 +985,3311 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2980340085049298</v>
+        <v>-0.275373312670996</v>
       </c>
       <c r="D19" t="n">
-        <v>10288.6302</v>
+        <v>29019.9405</v>
       </c>
       <c r="E19" t="n">
-        <v>8406.5501</v>
+        <v>27732.9731</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>0.01000000000021828</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01000000000021828</v>
+        <v>1.979999999999563</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4775553670825707</v>
+        <v>-0.288602891736033</v>
       </c>
       <c r="D20" t="n">
-        <v>1056.5838</v>
+        <v>27732.9731</v>
       </c>
       <c r="E20" t="n">
-        <v>30686.2297</v>
+        <v>101691.4843</v>
       </c>
       <c r="F20" t="n">
-        <v>6.618900000000394</v>
+        <v>1.979999999999563</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0.6000000000003638</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
       <c r="C21" t="n">
-        <v>-0.5321578137409381</v>
+        <v>-0.4686454702674268</v>
       </c>
       <c r="D21" t="n">
-        <v>1056.5838</v>
+        <v>29019.9405</v>
       </c>
       <c r="E21" t="n">
-        <v>398.162</v>
+        <v>3977.9478</v>
       </c>
       <c r="F21" t="n">
-        <v>6.618900000000394</v>
+        <v>0.01000000000021828</v>
       </c>
       <c r="G21" t="n">
-        <v>21.02999999999975</v>
+        <v>18.0012999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5198029996326929</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3977.9478</v>
+      </c>
+      <c r="E22" t="n">
+        <v>27732.9731</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18.0012999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.979999999999563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.762409899714572</v>
+      </c>
+      <c r="D24" t="n">
+        <v>29019.9405</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G24" t="n">
+        <v>35.97999999999956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.541131898146101</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3977.9478</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>16.73030000000017</v>
+      </c>
+      <c r="G25" t="n">
+        <v>35.97999999999956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.504399827095751</v>
+      </c>
+      <c r="D26" t="n">
+        <v>27732.9731</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.6899999999996</v>
+      </c>
+      <c r="G26" t="n">
+        <v>35.97999999999956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.113130454125874</v>
+      </c>
+      <c r="D27" t="n">
+        <v>101691.4843</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G27" t="n">
+        <v>35.97999999999956</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05701541425653388</v>
+      </c>
+      <c r="D28" t="n">
+        <v>29019.9405</v>
+      </c>
+      <c r="E28" t="n">
+        <v>101691.4843</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.168103950717155</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3977.9478</v>
+      </c>
+      <c r="E29" t="n">
+        <v>101691.4843</v>
+      </c>
+      <c r="F29" t="n">
+        <v>16.73030000000017</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C30" t="n">
+        <v>-0.2054736867524137</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27732.9731</v>
+      </c>
+      <c r="E30" t="n">
+        <v>101691.4843</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.6899999999996</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2845408046114551</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29019.9405</v>
+      </c>
+      <c r="E31" t="n">
+        <v>27732.9731</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.6899999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.4651690465487339</v>
+      </c>
+      <c r="D32" t="n">
+        <v>29019.9405</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3977.9478</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G32" t="n">
+        <v>16.73030000000017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.5104295174229446</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3977.9478</v>
+      </c>
+      <c r="E33" t="n">
+        <v>27732.9731</v>
+      </c>
+      <c r="F33" t="n">
+        <v>16.73030000000017</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.6899999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.767172731862395</v>
+      </c>
+      <c r="D35" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G35" t="n">
+        <v>35.97999999999956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.591687156879269</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3977.9478</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13.74449999999979</v>
+      </c>
+      <c r="G36" t="n">
+        <v>35.97999999999956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.503893233361058</v>
+      </c>
+      <c r="D37" t="n">
+        <v>27770.4131</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>35.97999999999956</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.214994434614659</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101691.4843</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G38" t="n">
+        <v>35.97999999999956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.04119390362514189</v>
+      </c>
+      <c r="D39" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E39" t="n">
+        <v>101691.4843</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.219909989911201</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3977.9478</v>
+      </c>
+      <c r="E40" t="n">
+        <v>101691.4843</v>
+      </c>
+      <c r="F40" t="n">
+        <v>13.74449999999979</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.3018472619123361</v>
+      </c>
+      <c r="D41" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E41" t="n">
+        <v>27770.4131</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.3093201104432226</v>
+      </c>
+      <c r="D42" t="n">
+        <v>27770.4131</v>
+      </c>
+      <c r="E42" t="n">
+        <v>101691.4843</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.4601264937851527</v>
+      </c>
+      <c r="D43" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3977.9478</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13.74449999999979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.4810289858647677</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3977.9478</v>
+      </c>
+      <c r="E44" t="n">
+        <v>27770.4131</v>
+      </c>
+      <c r="F44" t="n">
+        <v>13.74449999999979</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.767172731862395</v>
+      </c>
+      <c r="D46" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G46" t="n">
+        <v>35.97999999999956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.592025223304175</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3982.4992</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>13.72450000000026</v>
+      </c>
+      <c r="G47" t="n">
+        <v>35.97999999999956</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.504403135553114</v>
+      </c>
+      <c r="D48" t="n">
+        <v>27770.4131</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.079999999999927</v>
+      </c>
+      <c r="G48" t="n">
+        <v>35.97999999999956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.255806955204247</v>
+      </c>
+      <c r="D49" t="n">
+        <v>101691.4843</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>35.97999999999956</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.0980580095696412</v>
+      </c>
+      <c r="D50" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E50" t="n">
+        <v>101691.4843</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.276531193732782</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3982.4992</v>
+      </c>
+      <c r="E51" t="n">
+        <v>101691.4843</v>
+      </c>
+      <c r="F51" t="n">
+        <v>13.72450000000026</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.2864345651824056</v>
+      </c>
+      <c r="D52" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E52" t="n">
+        <v>27770.4131</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.079999999999927</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.36581703703529</v>
+      </c>
+      <c r="D53" t="n">
+        <v>27770.4131</v>
+      </c>
+      <c r="E53" t="n">
+        <v>101691.4843</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3.079999999999927</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.46012475541372</v>
+      </c>
+      <c r="D54" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3982.4992</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G54" t="n">
+        <v>13.72450000000026</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.4652436216328856</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3982.4992</v>
+      </c>
+      <c r="E55" t="n">
+        <v>27770.4131</v>
+      </c>
+      <c r="F55" t="n">
+        <v>13.72450000000026</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.079999999999927</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.80112890304378</v>
+      </c>
+      <c r="D57" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G57" t="n">
+        <v>34.98999999999978</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.649270322068593</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3982.4992</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9.324599999999919</v>
+      </c>
+      <c r="G58" t="n">
+        <v>34.98999999999978</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.521069545621438</v>
+      </c>
+      <c r="D59" t="n">
+        <v>27770.4131</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7.960000000000036</v>
+      </c>
+      <c r="G59" t="n">
+        <v>34.98999999999978</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.353956432574165</v>
+      </c>
+      <c r="D60" t="n">
+        <v>101720.5057</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.899999999999636</v>
+      </c>
+      <c r="G60" t="n">
+        <v>34.98999999999978</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.1785736519904458</v>
+      </c>
+      <c r="D61" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E61" t="n">
+        <v>101720.5057</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.899999999999636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.33349372254695</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3982.4992</v>
+      </c>
+      <c r="E62" t="n">
+        <v>101720.5057</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9.324599999999919</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.899999999999636</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.3532886129268155</v>
+      </c>
+      <c r="D63" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E63" t="n">
+        <v>27770.4131</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7.960000000000036</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.4074719681769119</v>
+      </c>
+      <c r="D64" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3982.4992</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G64" t="n">
+        <v>9.324599999999919</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.4642790440286316</v>
+      </c>
+      <c r="D65" t="n">
+        <v>27770.4131</v>
+      </c>
+      <c r="E65" t="n">
+        <v>101720.5057</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7.960000000000036</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.899999999999636</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.5084788695429613</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3982.4992</v>
+      </c>
+      <c r="E66" t="n">
+        <v>27770.4131</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9.324599999999919</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7.960000000000036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.362737249098699</v>
+      </c>
+      <c r="D68" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.9899999999997817</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.262211019178811</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3982.4992</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8.336299999999937</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.9899999999997817</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.165214786174535</v>
+      </c>
+      <c r="D70" t="n">
+        <v>27789.8934</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7.090000000000146</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.9899999999997817</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.918122198981643</v>
+      </c>
+      <c r="D71" t="n">
+        <v>101720.5057</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.899999999999636</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.9899999999997817</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.1785736519904458</v>
+      </c>
+      <c r="D72" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E72" t="n">
+        <v>101720.5057</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.899999999999636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.2817163870923005</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3982.4992</v>
+      </c>
+      <c r="E73" t="n">
+        <v>101720.5057</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8.336299999999937</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.899999999999636</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.3812372462214115</v>
+      </c>
+      <c r="D74" t="n">
+        <v>27789.8934</v>
+      </c>
+      <c r="E74" t="n">
+        <v>101720.5057</v>
+      </c>
+      <c r="F74" t="n">
+        <v>7.090000000000146</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.899999999999636</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.4213120349376988</v>
+      </c>
+      <c r="D75" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E75" t="n">
+        <v>27789.8934</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G75" t="n">
+        <v>7.090000000000146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.4422176977590084</v>
+      </c>
+      <c r="D76" t="n">
+        <v>29018.1801</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3982.4992</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G76" t="n">
+        <v>8.336299999999937</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.5247046907543199</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3982.4992</v>
+      </c>
+      <c r="E77" t="n">
+        <v>27789.8934</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8.336299999999937</v>
+      </c>
+      <c r="G77" t="n">
+        <v>7.090000000000146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.528574097347234</v>
+      </c>
+      <c r="D79" t="n">
+        <v>29066.5116</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G79" t="n">
+        <v>39.98999999999978</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.431683689412713</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4015.4797</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.6122000000004846</v>
+      </c>
+      <c r="G80" t="n">
+        <v>39.98999999999978</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.358999354641477</v>
+      </c>
+      <c r="D81" t="n">
+        <v>28068.6181</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5.079999999999927</v>
+      </c>
+      <c r="G81" t="n">
+        <v>39.98999999999978</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.796893787575145</v>
+      </c>
+      <c r="D82" t="n">
+        <v>102122.7347</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G82" t="n">
+        <v>39.98999999999978</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1460148006900133</v>
+      </c>
+      <c r="D83" t="n">
+        <v>29066.5116</v>
+      </c>
+      <c r="E83" t="n">
+        <v>102122.7347</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0467560356698797</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4015.4797</v>
+      </c>
+      <c r="E84" t="n">
+        <v>102122.7347</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.6122000000004846</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0.02770497094058329</v>
+      </c>
+      <c r="D85" t="n">
+        <v>28068.6181</v>
+      </c>
+      <c r="E85" t="n">
+        <v>102122.7347</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5.079999999999927</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.3118091861639861</v>
+      </c>
+      <c r="D86" t="n">
+        <v>29066.5116</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4015.4797</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.6122000000004846</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0.4156586500002898</v>
+      </c>
+      <c r="D87" t="n">
+        <v>29066.5116</v>
+      </c>
+      <c r="E87" t="n">
+        <v>28068.6181</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.079999999999927</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="n">
-        <v>-0.8041346369647602</v>
-      </c>
-      <c r="D22" t="n">
-        <v>398.162</v>
-      </c>
-      <c r="E22" t="n">
-        <v>30686.2297</v>
-      </c>
-      <c r="F22" t="n">
-        <v>21.02999999999975</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3</v>
+      <c r="C88" t="n">
+        <v>-0.4863254515778256</v>
+      </c>
+      <c r="D88" t="n">
+        <v>28068.6181</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4015.4797</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5.079999999999927</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.6122000000004846</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.527212051221078</v>
+      </c>
+      <c r="D90" t="n">
+        <v>29062.7085</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G90" t="n">
+        <v>39.98999999999978</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.407017424679861</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4016.4668</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.061599999999999</v>
+      </c>
+      <c r="G91" t="n">
+        <v>39.98999999999978</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.273530960225544</v>
+      </c>
+      <c r="D92" t="n">
+        <v>28077.2524</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>20.80999999999949</v>
+      </c>
+      <c r="G92" t="n">
+        <v>39.98999999999978</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.796893787575145</v>
+      </c>
+      <c r="D93" t="n">
+        <v>102122.7347</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G93" t="n">
+        <v>39.98999999999978</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.1446194611588381</v>
+      </c>
+      <c r="D94" t="n">
+        <v>29062.7085</v>
+      </c>
+      <c r="E94" t="n">
+        <v>102122.7347</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.02148683692012155</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4016.4668</v>
+      </c>
+      <c r="E95" t="n">
+        <v>102122.7347</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.061599999999999</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.1152625265214454</v>
+      </c>
+      <c r="D96" t="n">
+        <v>28077.2524</v>
+      </c>
+      <c r="E96" t="n">
+        <v>102122.7347</v>
+      </c>
+      <c r="F96" t="n">
+        <v>20.80999999999949</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.3132091734660218</v>
+      </c>
+      <c r="D97" t="n">
+        <v>29062.7085</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4016.4668</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2.061599999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.5742826984970339</v>
+      </c>
+      <c r="D98" t="n">
+        <v>28077.2524</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4016.4668</v>
+      </c>
+      <c r="F98" t="n">
+        <v>20.80999999999949</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.061599999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.7629920607771543</v>
+      </c>
+      <c r="D99" t="n">
+        <v>28077.2524</v>
+      </c>
+      <c r="E99" t="n">
+        <v>29062.7085</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20.80999999999949</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.411267874732514</v>
+      </c>
+      <c r="D101" t="n">
+        <v>29062.7085</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6.570000000000618</v>
+      </c>
+      <c r="G101" t="n">
+        <v>39.98999999999978</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.407034441764893</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4016.4668</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4.330500000000029</v>
+      </c>
+      <c r="G102" t="n">
+        <v>39.98999999999978</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.275233517883223</v>
+      </c>
+      <c r="D103" t="n">
+        <v>28077.2524</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4.470000000000255</v>
+      </c>
+      <c r="G103" t="n">
+        <v>39.98999999999978</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.796893787575145</v>
+      </c>
+      <c r="D104" t="n">
+        <v>102124.2308</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G104" t="n">
+        <v>39.98999999999978</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.02584118356805023</v>
+      </c>
+      <c r="D105" t="n">
+        <v>29062.7085</v>
+      </c>
+      <c r="E105" t="n">
+        <v>102124.2308</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6.570000000000618</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.02150426996515224</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4016.4668</v>
+      </c>
+      <c r="E106" t="n">
+        <v>102124.2308</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4.330500000000029</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0.1135183521074923</v>
+      </c>
+      <c r="D107" t="n">
+        <v>28077.2524</v>
+      </c>
+      <c r="E107" t="n">
+        <v>102124.2308</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4.470000000000255</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0.4395723792281443</v>
+      </c>
+      <c r="D108" t="n">
+        <v>29062.7085</v>
+      </c>
+      <c r="E108" t="n">
+        <v>28077.2524</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6.570000000000618</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4.470000000000255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>36</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0.4439294826324406</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4016.4668</v>
+      </c>
+      <c r="E109" t="n">
+        <v>28077.2524</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4.330500000000029</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4.470000000000255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.4723130537175803</v>
+      </c>
+      <c r="D110" t="n">
+        <v>29062.7085</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4016.4668</v>
+      </c>
+      <c r="F110" t="n">
+        <v>6.570000000000618</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4.330500000000029</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.159114746059659</v>
+      </c>
+      <c r="D112" t="n">
+        <v>29091.2801</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3.569999999999709</v>
+      </c>
+      <c r="G112" t="n">
+        <v>54.98999999999978</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.025806072638048</v>
+      </c>
+      <c r="D113" t="n">
+        <v>28091.4015</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>13.02999999999975</v>
+      </c>
+      <c r="G113" t="n">
+        <v>54.98999999999978</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.015056645150955</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4019.0369</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4.418399999999565</v>
+      </c>
+      <c r="G114" t="n">
+        <v>54.98999999999978</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.56366598958323</v>
+      </c>
+      <c r="D115" t="n">
+        <v>102138.1763</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G115" t="n">
+        <v>54.98999999999978</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.005007649596948082</v>
+      </c>
+      <c r="D116" t="n">
+        <v>29091.2801</v>
+      </c>
+      <c r="E116" t="n">
+        <v>102138.1763</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3.569999999999709</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.1312360050310599</v>
+      </c>
+      <c r="D117" t="n">
+        <v>28091.4015</v>
+      </c>
+      <c r="E117" t="n">
+        <v>102138.1763</v>
+      </c>
+      <c r="F117" t="n">
+        <v>13.02999999999975</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>42</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.1422220965464138</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4019.0369</v>
+      </c>
+      <c r="E118" t="n">
+        <v>102138.1763</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4.418399999999565</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.330375968199968</v>
+      </c>
+      <c r="D119" t="n">
+        <v>29091.2801</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4019.0369</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3.569999999999709</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4.418399999999565</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0.4670765846089309</v>
+      </c>
+      <c r="D120" t="n">
+        <v>28091.4015</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4019.0369</v>
+      </c>
+      <c r="F120" t="n">
+        <v>13.02999999999975</v>
+      </c>
+      <c r="G120" t="n">
+        <v>4.418399999999565</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.7009040480163757</v>
+      </c>
+      <c r="D121" t="n">
+        <v>28091.4015</v>
+      </c>
+      <c r="E121" t="n">
+        <v>29091.2801</v>
+      </c>
+      <c r="F121" t="n">
+        <v>13.02999999999975</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3.569999999999709</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.157578538555427</v>
+      </c>
+      <c r="D123" t="n">
+        <v>29091.9539</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2.180000000000291</v>
+      </c>
+      <c r="G123" t="n">
+        <v>54.98999999999978</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>41</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.033316420436448</v>
+      </c>
+      <c r="D124" t="n">
+        <v>28091.4015</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>11.47000000000025</v>
+      </c>
+      <c r="G124" t="n">
+        <v>54.98999999999978</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.029445436327191</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4018.2075</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.497199999999793</v>
+      </c>
+      <c r="G125" t="n">
+        <v>54.98999999999978</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.551711749752685</v>
+      </c>
+      <c r="D126" t="n">
+        <v>102138.1763</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G126" t="n">
+        <v>54.98999999999978</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.01558007239403559</v>
+      </c>
+      <c r="D127" t="n">
+        <v>29091.9539</v>
+      </c>
+      <c r="E127" t="n">
+        <v>102138.1763</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.180000000000291</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>41</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-0.1114024328784608</v>
+      </c>
+      <c r="D128" t="n">
+        <v>28091.4015</v>
+      </c>
+      <c r="E128" t="n">
+        <v>102138.1763</v>
+      </c>
+      <c r="F128" t="n">
+        <v>11.47000000000025</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.1153581618448138</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4018.2075</v>
+      </c>
+      <c r="E129" t="n">
+        <v>102138.1763</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.497199999999793</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.2956391612573218</v>
+      </c>
+      <c r="D130" t="n">
+        <v>29091.9539</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4018.2075</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.180000000000291</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.497199999999793</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-0.4230169220907011</v>
+      </c>
+      <c r="D131" t="n">
+        <v>28091.4015</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4018.2075</v>
+      </c>
+      <c r="F131" t="n">
+        <v>11.47000000000025</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.497199999999793</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-0.6671766676726679</v>
+      </c>
+      <c r="D132" t="n">
+        <v>28091.4015</v>
+      </c>
+      <c r="E132" t="n">
+        <v>29091.9539</v>
+      </c>
+      <c r="F132" t="n">
+        <v>11.47000000000025</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2.180000000000291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.183827814151289</v>
+      </c>
+      <c r="D134" t="n">
+        <v>29091.9539</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.9799999999995634</v>
+      </c>
+      <c r="G134" t="n">
+        <v>55.67000000000007</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.023190223746283</v>
+      </c>
+      <c r="D135" t="n">
+        <v>28091.4015</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>11.41000000000076</v>
+      </c>
+      <c r="G135" t="n">
+        <v>55.67000000000007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>45</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.018350756492994</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4018.2075</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5.28269999999975</v>
+      </c>
+      <c r="G136" t="n">
+        <v>55.67000000000007</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.466893258469496</v>
+      </c>
+      <c r="D137" t="n">
+        <v>102150.3557</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G137" t="n">
+        <v>55.67000000000007</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.1284500059373905</v>
+      </c>
+      <c r="D138" t="n">
+        <v>29091.9539</v>
+      </c>
+      <c r="E138" t="n">
+        <v>102150.3557</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.9799999999995634</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>41</v>
+      </c>
+      <c r="B139" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.03556300727455197</v>
+      </c>
+      <c r="D139" t="n">
+        <v>28091.4015</v>
+      </c>
+      <c r="E139" t="n">
+        <v>102150.3557</v>
+      </c>
+      <c r="F139" t="n">
+        <v>11.41000000000076</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>45</v>
+      </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-0.04050416459987791</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4018.2075</v>
+      </c>
+      <c r="E140" t="n">
+        <v>102150.3557</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5.28269999999975</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>44</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.3235289958327074</v>
+      </c>
+      <c r="D141" t="n">
+        <v>29091.9539</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4018.2075</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.9799999999995634</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5.28269999999975</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>41</v>
+      </c>
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-0.4882842668547395</v>
+      </c>
+      <c r="D142" t="n">
+        <v>28091.4015</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4018.2075</v>
+      </c>
+      <c r="F142" t="n">
+        <v>11.41000000000076</v>
+      </c>
+      <c r="G142" t="n">
+        <v>5.28269999999975</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>41</v>
+      </c>
+      <c r="B143" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-0.683520198646386</v>
+      </c>
+      <c r="D143" t="n">
+        <v>28091.4015</v>
+      </c>
+      <c r="E143" t="n">
+        <v>29091.9539</v>
+      </c>
+      <c r="F143" t="n">
+        <v>11.41000000000076</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.9799999999995634</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>47</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.185193489733908</v>
+      </c>
+      <c r="D145" t="n">
+        <v>29088.6937</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G145" t="n">
+        <v>55.68000000000029</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.012776947428845</v>
+      </c>
+      <c r="D146" t="n">
+        <v>28111.2512</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G146" t="n">
+        <v>55.68000000000029</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>49</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.950921737021644</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4018.3869</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.663099999999758</v>
+      </c>
+      <c r="G147" t="n">
+        <v>55.68000000000029</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.466893258469496</v>
+      </c>
+      <c r="D148" t="n">
+        <v>102150.3557</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G148" t="n">
+        <v>55.68000000000029</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>47</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.1298443779944585</v>
+      </c>
+      <c r="D149" t="n">
+        <v>29088.6937</v>
+      </c>
+      <c r="E149" t="n">
+        <v>102150.3557</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-0.04619509420965535</v>
+      </c>
+      <c r="D150" t="n">
+        <v>28111.2512</v>
+      </c>
+      <c r="E150" t="n">
+        <v>102150.3557</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.1093500470209227</v>
+      </c>
+      <c r="D151" t="n">
+        <v>4018.3869</v>
+      </c>
+      <c r="E151" t="n">
+        <v>102150.3557</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.663099999999758</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>47</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-0.2073499722221705</v>
+      </c>
+      <c r="D152" t="n">
+        <v>29088.6937</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4018.3869</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2.663099999999758</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>47</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-0.3245877302598972</v>
+      </c>
+      <c r="D153" t="n">
+        <v>29088.6937</v>
+      </c>
+      <c r="E153" t="n">
+        <v>28111.2512</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>48</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.3839838113327204</v>
+      </c>
+      <c r="D154" t="n">
+        <v>28111.2512</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4018.3869</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2.663099999999758</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>47</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.185193489733908</v>
+      </c>
+      <c r="D156" t="n">
+        <v>29088.6937</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G156" t="n">
+        <v>55.68000000000029</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>48</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.012776947428845</v>
+      </c>
+      <c r="D157" t="n">
+        <v>28111.2512</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G157" t="n">
+        <v>55.68000000000029</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>49</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.856904331952906</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4018.3869</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3.702000000000226</v>
+      </c>
+      <c r="G158" t="n">
+        <v>55.68000000000029</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>50</v>
+      </c>
+      <c r="B159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.466893258469496</v>
+      </c>
+      <c r="D159" t="n">
+        <v>102184.2054</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G159" t="n">
+        <v>55.68000000000029</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>47</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.1298443779944585</v>
+      </c>
+      <c r="D160" t="n">
+        <v>29088.6937</v>
+      </c>
+      <c r="E160" t="n">
+        <v>102184.2054</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>48</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-0.04619509420965535</v>
+      </c>
+      <c r="D161" t="n">
+        <v>28111.2512</v>
+      </c>
+      <c r="E161" t="n">
+        <v>102184.2054</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>47</v>
+      </c>
+      <c r="B162" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-0.1294039180484517</v>
+      </c>
+      <c r="D162" t="n">
+        <v>29088.6937</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4018.3869</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G162" t="n">
+        <v>3.702000000000226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>49</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.2053430077022535</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4018.3869</v>
+      </c>
+      <c r="E163" t="n">
+        <v>102184.2054</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3.702000000000226</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>48</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.3059003629379586</v>
+      </c>
+      <c r="D164" t="n">
+        <v>28111.2512</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4018.3869</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3.702000000000226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>47</v>
+      </c>
+      <c r="B165" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.3245877302598972</v>
+      </c>
+      <c r="D165" t="n">
+        <v>29088.6937</v>
+      </c>
+      <c r="E165" t="n">
+        <v>28111.2512</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>47</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.194411799916546</v>
+      </c>
+      <c r="D167" t="n">
+        <v>29088.6937</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.9299999999993815</v>
+      </c>
+      <c r="G167" t="n">
+        <v>55.68000000000029</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>48</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.941078979341611</v>
+      </c>
+      <c r="D168" t="n">
+        <v>28111.2512</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4.210000000000036</v>
+      </c>
+      <c r="G168" t="n">
+        <v>55.68000000000029</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>49</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.877582291591898</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4018.3869</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2.489999999999782</v>
+      </c>
+      <c r="G169" t="n">
+        <v>55.68000000000029</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>50</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.466893258469496</v>
+      </c>
+      <c r="D170" t="n">
+        <v>102184.2054</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G170" t="n">
+        <v>55.68000000000029</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>47</v>
+      </c>
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.1392563893796195</v>
+      </c>
+      <c r="D171" t="n">
+        <v>29088.6937</v>
+      </c>
+      <c r="E171" t="n">
+        <v>102184.2054</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.9299999999993815</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>48</v>
+      </c>
+      <c r="B172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.1193996272054051</v>
+      </c>
+      <c r="D172" t="n">
+        <v>28111.2512</v>
+      </c>
+      <c r="E172" t="n">
+        <v>102184.2054</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4.210000000000036</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>47</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.1199657327278616</v>
+      </c>
+      <c r="D173" t="n">
+        <v>29088.6937</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4018.3869</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.9299999999993815</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2.489999999999782</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>49</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.1842305491617877</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4018.3869</v>
+      </c>
+      <c r="E174" t="n">
+        <v>102184.2054</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2.489999999999782</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>47</v>
+      </c>
+      <c r="B175" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.3151328920647644</v>
+      </c>
+      <c r="D175" t="n">
+        <v>29088.6937</v>
+      </c>
+      <c r="E175" t="n">
+        <v>28111.2512</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.9299999999993815</v>
+      </c>
+      <c r="G175" t="n">
+        <v>4.210000000000036</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>48</v>
+      </c>
+      <c r="B176" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-0.3792931779352934</v>
+      </c>
+      <c r="D176" t="n">
+        <v>28111.2512</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4018.3869</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4.210000000000036</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2.489999999999782</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +4303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,436 +4336,436 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6615837570626464</v>
+        <v>0.2153227859135602</v>
       </c>
       <c r="D2" t="n">
-        <v>16130.6188</v>
+        <v>260082.4561</v>
       </c>
       <c r="E2" t="n">
-        <v>3747.3801</v>
+        <v>48340.7773</v>
       </c>
       <c r="F2" t="n">
-        <v>1.010000000000048</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3609282399999643</v>
+        <v>0.6699999999999591</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.648048543313129</v>
+        <v>0.1505710554577535</v>
       </c>
       <c r="D3" t="n">
-        <v>24445.6554</v>
+        <v>260082.4561</v>
       </c>
       <c r="E3" t="n">
-        <v>3747.3801</v>
+        <v>395746.366</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3609282399999643</v>
+        <v>0.4599999999999795</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5307031032511498</v>
+        <v>0.1471662713989892</v>
       </c>
       <c r="D4" t="n">
-        <v>69200.1783</v>
+        <v>260082.4561</v>
       </c>
       <c r="E4" t="n">
-        <v>3747.3801</v>
+        <v>15144.9898</v>
       </c>
       <c r="F4" t="n">
         <v>0.009999999999990905</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3609282399999643</v>
+        <v>0.1915999899999861</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05224455751072302</v>
+        <v>-0.0744104154201158</v>
       </c>
       <c r="D5" t="n">
-        <v>115329.407</v>
+        <v>74846.1021</v>
       </c>
       <c r="E5" t="n">
-        <v>3747.3801</v>
+        <v>48340.7773</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3899999999999864</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3609282399999643</v>
+        <v>0.6699999999999591</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1163664152631127</v>
+        <v>-0.1393501579703708</v>
       </c>
       <c r="D6" t="n">
-        <v>16130.6188</v>
+        <v>74846.1021</v>
       </c>
       <c r="E6" t="n">
-        <v>115329.407</v>
+        <v>395746.366</v>
       </c>
       <c r="F6" t="n">
-        <v>1.010000000000048</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3899999999999864</v>
+        <v>0.4599999999999795</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1300076275000949</v>
+        <v>-0.142764828105963</v>
       </c>
       <c r="D7" t="n">
-        <v>24445.6554</v>
+        <v>74846.1021</v>
       </c>
       <c r="E7" t="n">
-        <v>115329.407</v>
+        <v>15144.9898</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3899999999999864</v>
+        <v>0.1915999899999861</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2482720363635759</v>
+        <v>-0.3889766252938168</v>
       </c>
       <c r="D8" t="n">
-        <v>69200.1783</v>
+        <v>15144.9898</v>
       </c>
       <c r="E8" t="n">
-        <v>115329.407</v>
+        <v>48340.7773</v>
       </c>
       <c r="F8" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.1915999899999861</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3899999999999864</v>
+        <v>0.6699999999999591</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3723163628008227</v>
+        <v>-0.4541204944394662</v>
       </c>
       <c r="D9" t="n">
-        <v>16130.6188</v>
+        <v>15144.9898</v>
       </c>
       <c r="E9" t="n">
-        <v>69200.1783</v>
+        <v>395746.366</v>
       </c>
       <c r="F9" t="n">
-        <v>1.010000000000048</v>
+        <v>0.1915999899999861</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.4599999999999795</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3859924491316361</v>
+        <v>-0.6728423545531705</v>
       </c>
       <c r="D10" t="n">
-        <v>24445.6554</v>
+        <v>395746.366</v>
       </c>
       <c r="E10" t="n">
-        <v>69200.1783</v>
+        <v>48340.7773</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.4599999999999795</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.6699999999999591</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5880999286369448</v>
+        <v>-0.7960580423103483</v>
       </c>
       <c r="D11" t="n">
-        <v>16130.6188</v>
+        <v>74846.1021</v>
       </c>
       <c r="E11" t="n">
-        <v>24445.6554</v>
+        <v>260082.4561</v>
       </c>
       <c r="F11" t="n">
-        <v>1.010000000000048</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.009999999999990905</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6943039205155298</v>
+        <v>0.2519074440385494</v>
       </c>
       <c r="D13" t="n">
-        <v>16118.92</v>
+        <v>260207.9202</v>
       </c>
       <c r="E13" t="n">
-        <v>3747.3801</v>
+        <v>395768.099</v>
       </c>
       <c r="F13" t="n">
-        <v>0.839999999999975</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3609196300000121</v>
+        <v>0.1499999999999773</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6284066536712908</v>
+        <v>0.1459985786481715</v>
       </c>
       <c r="D14" t="n">
-        <v>24445.6554</v>
+        <v>75025.8171</v>
       </c>
       <c r="E14" t="n">
-        <v>3747.3801</v>
+        <v>395768.099</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06000000000000227</v>
+        <v>0.6800000000000068</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3609196300000121</v>
+        <v>0.1499999999999773</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5307031032511498</v>
+        <v>-0.03537161260954653</v>
       </c>
       <c r="D15" t="n">
-        <v>69200.1783</v>
+        <v>260207.9202</v>
       </c>
       <c r="E15" t="n">
-        <v>3747.3801</v>
+        <v>15137.2591</v>
       </c>
       <c r="F15" t="n">
         <v>0.009999999999990905</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3609196300000121</v>
+        <v>0.1574999499999876</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1733695436353825</v>
+        <v>-0.1415855003633641</v>
       </c>
       <c r="D16" t="n">
-        <v>115329.407</v>
+        <v>75025.8171</v>
       </c>
       <c r="E16" t="n">
-        <v>3747.3801</v>
+        <v>15137.2591</v>
       </c>
       <c r="F16" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.6800000000000068</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3609196300000121</v>
+        <v>0.1574999499999876</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.08010783407843175</v>
+        <v>-0.1589797008842867</v>
       </c>
       <c r="D17" t="n">
-        <v>16118.92</v>
+        <v>15137.2591</v>
       </c>
       <c r="E17" t="n">
-        <v>115329.407</v>
+        <v>395768.099</v>
       </c>
       <c r="F17" t="n">
-        <v>0.839999999999975</v>
+        <v>0.1574999499999876</v>
       </c>
       <c r="G17" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.1499999999999773</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1465189850205068</v>
+        <v>-0.2251915638403477</v>
       </c>
       <c r="D18" t="n">
-        <v>24445.6554</v>
+        <v>260207.9202</v>
       </c>
       <c r="E18" t="n">
-        <v>115329.407</v>
+        <v>48373.0658</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06000000000000227</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="G18" t="n">
-        <v>0.009999999999990905</v>
+        <v>1.160000000000025</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2449844532449433</v>
+        <v>-0.3316069954547863</v>
       </c>
       <c r="D19" t="n">
-        <v>69200.1783</v>
+        <v>75025.8171</v>
       </c>
       <c r="E19" t="n">
-        <v>115329.407</v>
+        <v>48373.0658</v>
       </c>
       <c r="F19" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.6800000000000068</v>
       </c>
       <c r="G19" t="n">
-        <v>0.009999999999990905</v>
+        <v>1.160000000000025</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.33925565253639</v>
+        <v>-0.3655357304726524</v>
       </c>
       <c r="D20" t="n">
-        <v>16118.92</v>
+        <v>48373.0658</v>
       </c>
       <c r="E20" t="n">
-        <v>69200.1783</v>
+        <v>395768.099</v>
       </c>
       <c r="F20" t="n">
-        <v>0.839999999999975</v>
+        <v>1.160000000000025</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.1499999999999773</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.4058387687696741</v>
+        <v>-0.6109415053494156</v>
       </c>
       <c r="D21" t="n">
-        <v>24445.6554</v>
+        <v>75025.8171</v>
       </c>
       <c r="E21" t="n">
-        <v>69200.1783</v>
+        <v>260207.9202</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06000000000000227</v>
+        <v>0.6800000000000068</v>
       </c>
       <c r="G21" t="n">
         <v>0.009999999999990905</v>
@@ -1418,25 +4773,3245 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5549681434167032</v>
+        <v>-0.6545930516284919</v>
       </c>
       <c r="D22" t="n">
-        <v>16118.92</v>
+        <v>48373.0658</v>
       </c>
       <c r="E22" t="n">
-        <v>24445.6554</v>
+        <v>15137.2591</v>
       </c>
       <c r="F22" t="n">
-        <v>0.839999999999975</v>
+        <v>1.160000000000025</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06000000000000227</v>
+        <v>0.1574999499999876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1573706900464158</v>
+      </c>
+      <c r="D24" t="n">
+        <v>260207.9202</v>
+      </c>
+      <c r="E24" t="n">
+        <v>395768.099</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1430428316327602</v>
+      </c>
+      <c r="D25" t="n">
+        <v>75171.73209999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>395768.099</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.339999999999975</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.08368742201383812</v>
+      </c>
+      <c r="D26" t="n">
+        <v>260207.9202</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15137.2591</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2399999900000012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.09804987333157621</v>
+      </c>
+      <c r="D27" t="n">
+        <v>75171.73209999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>15137.2591</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.339999999999975</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.2399999900000012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.2298469005500292</v>
+      </c>
+      <c r="D28" t="n">
+        <v>15137.2591</v>
+      </c>
+      <c r="E28" t="n">
+        <v>395768.099</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2399999900000012</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.2846364190614626</v>
+      </c>
+      <c r="D29" t="n">
+        <v>260207.9202</v>
+      </c>
+      <c r="E29" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.050000000000011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.2990277074480756</v>
+      </c>
+      <c r="D30" t="n">
+        <v>75171.73209999999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.339999999999975</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.050000000000011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.3684900040349024</v>
+      </c>
+      <c r="D31" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="E31" t="n">
+        <v>395768.099</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.050000000000011</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.5186497832093228</v>
+      </c>
+      <c r="D32" t="n">
+        <v>75171.73209999999</v>
+      </c>
+      <c r="E32" t="n">
+        <v>260207.9202</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.339999999999975</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.6108177439785368</v>
+      </c>
+      <c r="D33" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="E33" t="n">
+        <v>15137.2591</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.050000000000011</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.2399999900000012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.148888158055049</v>
+      </c>
+      <c r="D35" t="n">
+        <v>75171.73209999999</v>
+      </c>
+      <c r="E35" t="n">
+        <v>395768.099</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3500000000000227</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01551556753163183</v>
+      </c>
+      <c r="D36" t="n">
+        <v>260452.6965</v>
+      </c>
+      <c r="E36" t="n">
+        <v>395768.099</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.1010127536942912</v>
+      </c>
+      <c r="D37" t="n">
+        <v>75171.73209999999</v>
+      </c>
+      <c r="E37" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3500000000000227</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2999999799999955</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.2347191405206172</v>
+      </c>
+      <c r="D38" t="n">
+        <v>260452.6965</v>
+      </c>
+      <c r="E38" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2999999799999955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.2387284624754757</v>
+      </c>
+      <c r="D39" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="E39" t="n">
+        <v>395768.099</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.2999999799999955</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.2828397646301293</v>
+      </c>
+      <c r="D40" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="E40" t="n">
+        <v>395768.099</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8799999999999955</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.3286568458950095</v>
+      </c>
+      <c r="D41" t="n">
+        <v>75171.73209999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.3500000000000227</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.8799999999999955</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.3701566153166037</v>
+      </c>
+      <c r="D42" t="n">
+        <v>75171.73209999999</v>
+      </c>
+      <c r="E42" t="n">
+        <v>260452.6965</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.3500000000000227</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.4626673002648419</v>
+      </c>
+      <c r="D43" t="n">
+        <v>260452.6965</v>
+      </c>
+      <c r="E43" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.8799999999999955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.5338211771322048</v>
+      </c>
+      <c r="D44" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="E44" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8799999999999955</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.2999999799999955</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1400216985160357</v>
+      </c>
+      <c r="D46" t="n">
+        <v>75171.73209999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>395815.5973</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.7099999999999795</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.09822793684381186</v>
+      </c>
+      <c r="D47" t="n">
+        <v>260452.6965</v>
+      </c>
+      <c r="E47" t="n">
+        <v>395815.5973</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.009713430200564758</v>
+      </c>
+      <c r="D48" t="n">
+        <v>75171.73209999999</v>
+      </c>
+      <c r="E48" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7099999999999795</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.05156985956398968</v>
+      </c>
+      <c r="D49" t="n">
+        <v>260452.6965</v>
+      </c>
+      <c r="E49" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.1099014036354134</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75171.73209999999</v>
+      </c>
+      <c r="E50" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.7099999999999795</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.2999999900000034</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.1517997640342279</v>
+      </c>
+      <c r="D51" t="n">
+        <v>260452.6965</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.2999999900000034</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.2387284654280038</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="E52" t="n">
+        <v>395815.5973</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.2999999900000034</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.3537360811834289</v>
+      </c>
+      <c r="D53" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="E53" t="n">
+        <v>395815.5973</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.3890315113974839</v>
+      </c>
+      <c r="D54" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="E54" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.2999999900000034</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.4651499227413141</v>
+      </c>
+      <c r="D55" t="n">
+        <v>75171.73209999999</v>
+      </c>
+      <c r="E55" t="n">
+        <v>260452.6965</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.7099999999999795</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1661472968523975</v>
+      </c>
+      <c r="D57" t="n">
+        <v>75349.6572</v>
+      </c>
+      <c r="E57" t="n">
+        <v>395815.5973</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.8299999999999841</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1332535480781873</v>
+      </c>
+      <c r="D58" t="n">
+        <v>260452.6965</v>
+      </c>
+      <c r="E58" t="n">
+        <v>395815.5973</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.1454560033999356</v>
+      </c>
+      <c r="D59" t="n">
+        <v>75349.6572</v>
+      </c>
+      <c r="E59" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8299999999999841</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.2999999900000034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.1769253738902955</v>
+      </c>
+      <c r="D60" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="E60" t="n">
+        <v>395815.5973</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.2999999900000034</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.1784524207619863</v>
+      </c>
+      <c r="D61" t="n">
+        <v>260452.6965</v>
+      </c>
+      <c r="E61" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.2999999900000034</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.2104258139082102</v>
+      </c>
+      <c r="D62" t="n">
+        <v>75349.6572</v>
+      </c>
+      <c r="E62" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.8299999999999841</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.5600000000000023</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.2434436378429504</v>
+      </c>
+      <c r="D63" t="n">
+        <v>260452.6965</v>
+      </c>
+      <c r="E63" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.5600000000000023</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.2889098887973135</v>
+      </c>
+      <c r="D64" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="E64" t="n">
+        <v>395815.5973</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5600000000000023</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.4711204504891747</v>
+      </c>
+      <c r="D65" t="n">
+        <v>75349.6572</v>
+      </c>
+      <c r="E65" t="n">
+        <v>260452.6965</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.8299999999999841</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.6019335221031411</v>
+      </c>
+      <c r="D66" t="n">
+        <v>48367.5699</v>
+      </c>
+      <c r="E66" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.5600000000000023</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.2999999900000034</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.2923672748959575</v>
+      </c>
+      <c r="D68" t="n">
+        <v>75349.6572</v>
+      </c>
+      <c r="E68" t="n">
+        <v>395815.5973</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1108634395078786</v>
+      </c>
+      <c r="D69" t="n">
+        <v>75349.6572</v>
+      </c>
+      <c r="E69" t="n">
+        <v>48459.7942</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.02999999999997272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.05596137194216982</v>
+      </c>
+      <c r="D70" t="n">
+        <v>260769.6967</v>
+      </c>
+      <c r="E70" t="n">
+        <v>395815.5973</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.0887673286800803</v>
+      </c>
+      <c r="D71" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="E71" t="n">
+        <v>395815.5973</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.2999999900000034</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.1069385203217116</v>
+      </c>
+      <c r="D72" t="n">
+        <v>75349.6572</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.2999999900000034</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.1259728074117797</v>
+      </c>
+      <c r="D73" t="n">
+        <v>260769.6967</v>
+      </c>
+      <c r="E73" t="n">
+        <v>48459.7942</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.02999999999997272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.2664883144614678</v>
+      </c>
+      <c r="D74" t="n">
+        <v>75349.6572</v>
+      </c>
+      <c r="E74" t="n">
+        <v>260769.6967</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.2709649664427366</v>
+      </c>
+      <c r="D75" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="E75" t="n">
+        <v>48459.7942</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.2999999900000034</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02999999999997272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.3274858309160356</v>
+      </c>
+      <c r="D76" t="n">
+        <v>48459.7942</v>
+      </c>
+      <c r="E76" t="n">
+        <v>395815.5973</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.02999999999997272</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.01000000000004775</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.3442911737347482</v>
+      </c>
+      <c r="D77" t="n">
+        <v>260769.6967</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15141.2899</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.2999999900000034</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.1780207290481043</v>
+      </c>
+      <c r="D79" t="n">
+        <v>262751.5314</v>
+      </c>
+      <c r="E79" t="n">
+        <v>398353.6016</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1692806101690419</v>
+      </c>
+      <c r="D80" t="n">
+        <v>76497.9814</v>
+      </c>
+      <c r="E80" t="n">
+        <v>398353.6016</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.02220140707689732</v>
+      </c>
+      <c r="D81" t="n">
+        <v>262751.5314</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15266.2232</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.799999090000028</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.03095905681724637</v>
+      </c>
+      <c r="D82" t="n">
+        <v>76497.9814</v>
+      </c>
+      <c r="E82" t="n">
+        <v>15266.2232</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.799999090000028</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.09574547443986531</v>
+      </c>
+      <c r="D83" t="n">
+        <v>262751.5314</v>
+      </c>
+      <c r="E83" t="n">
+        <v>48715.8014</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02000000000003865</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.1045095634824231</v>
+      </c>
+      <c r="D84" t="n">
+        <v>76497.9814</v>
+      </c>
+      <c r="E84" t="n">
+        <v>48715.8014</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.02000000000003865</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0.2322386972651104</v>
+      </c>
+      <c r="D85" t="n">
+        <v>48715.8014</v>
+      </c>
+      <c r="E85" t="n">
+        <v>398353.6016</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.02000000000003865</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.4332837285010062</v>
+      </c>
+      <c r="D86" t="n">
+        <v>48715.8014</v>
+      </c>
+      <c r="E86" t="n">
+        <v>15266.2232</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.02000000000003865</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.799999090000028</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0.5130034374607608</v>
+      </c>
+      <c r="D87" t="n">
+        <v>76497.9814</v>
+      </c>
+      <c r="E87" t="n">
+        <v>262751.5314</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0.7270346521627136</v>
+      </c>
+      <c r="D88" t="n">
+        <v>15266.2232</v>
+      </c>
+      <c r="E88" t="n">
+        <v>398353.6016</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.799999090000028</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1780207290481043</v>
+      </c>
+      <c r="D90" t="n">
+        <v>262690.3973</v>
+      </c>
+      <c r="E90" t="n">
+        <v>398353.6016</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1692806101690419</v>
+      </c>
+      <c r="D91" t="n">
+        <v>76497.9814</v>
+      </c>
+      <c r="E91" t="n">
+        <v>398353.6016</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0.02220132228753386</v>
+      </c>
+      <c r="D92" t="n">
+        <v>262690.3973</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15282.3193</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.699998810000011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.030958972020459</v>
+      </c>
+      <c r="D93" t="n">
+        <v>76497.9814</v>
+      </c>
+      <c r="E93" t="n">
+        <v>15282.3193</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.699998810000011</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.2293082727914325</v>
+      </c>
+      <c r="D94" t="n">
+        <v>48715.8014</v>
+      </c>
+      <c r="E94" t="n">
+        <v>398353.6016</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.199999999999989</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.4303473410697566</v>
+      </c>
+      <c r="D95" t="n">
+        <v>48715.8014</v>
+      </c>
+      <c r="E95" t="n">
+        <v>15282.3193</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.199999999999989</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.699998810000011</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.4452274364578332</v>
+      </c>
+      <c r="D96" t="n">
+        <v>262690.3973</v>
+      </c>
+      <c r="E96" t="n">
+        <v>48715.8014</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.199999999999989</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.4540221251129857</v>
+      </c>
+      <c r="D97" t="n">
+        <v>76497.9814</v>
+      </c>
+      <c r="E97" t="n">
+        <v>48715.8014</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.199999999999989</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.5130034374607608</v>
+      </c>
+      <c r="D98" t="n">
+        <v>76497.9814</v>
+      </c>
+      <c r="E98" t="n">
+        <v>262690.3973</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.6977450259384246</v>
+      </c>
+      <c r="D99" t="n">
+        <v>15282.3193</v>
+      </c>
+      <c r="E99" t="n">
+        <v>398353.6016</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.699998810000011</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.2332641639236628</v>
+      </c>
+      <c r="D101" t="n">
+        <v>262690.3973</v>
+      </c>
+      <c r="E101" t="n">
+        <v>398402.9371</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03000000000002956</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.2245288819972597</v>
+      </c>
+      <c r="D102" t="n">
+        <v>76497.9814</v>
+      </c>
+      <c r="E102" t="n">
+        <v>398402.9371</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.03000000000002956</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>35</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0.01678946848555015</v>
+      </c>
+      <c r="D103" t="n">
+        <v>262690.3973</v>
+      </c>
+      <c r="E103" t="n">
+        <v>48715.8014</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-0.01688029855855533</v>
+      </c>
+      <c r="D104" t="n">
+        <v>262690.3973</v>
+      </c>
+      <c r="E104" t="n">
+        <v>15282.3193</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.681798650000019</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-0.02554664437247533</v>
+      </c>
+      <c r="D105" t="n">
+        <v>76497.9814</v>
+      </c>
+      <c r="E105" t="n">
+        <v>48715.8014</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-0.02563748239829453</v>
+      </c>
+      <c r="D106" t="n">
+        <v>76497.9814</v>
+      </c>
+      <c r="E106" t="n">
+        <v>15282.3193</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.681798650000019</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0.252917087508604</v>
+      </c>
+      <c r="D107" t="n">
+        <v>48715.8014</v>
+      </c>
+      <c r="E107" t="n">
+        <v>398402.9371</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.03000000000002956</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0.5130034374607608</v>
+      </c>
+      <c r="D108" t="n">
+        <v>76497.9814</v>
+      </c>
+      <c r="E108" t="n">
+        <v>262690.3973</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>36</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0.6420169222452494</v>
+      </c>
+      <c r="D109" t="n">
+        <v>15282.3193</v>
+      </c>
+      <c r="E109" t="n">
+        <v>398402.9371</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.681798650000019</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.03000000000002956</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.8942643441288944</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15282.3193</v>
+      </c>
+      <c r="E110" t="n">
+        <v>48715.8014</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.681798650000019</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.4602174842346791</v>
+      </c>
+      <c r="D112" t="n">
+        <v>262979.5358</v>
+      </c>
+      <c r="E112" t="n">
+        <v>15295.678</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.5563999400000057</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.2188711905594113</v>
+      </c>
+      <c r="D113" t="n">
+        <v>262979.5358</v>
+      </c>
+      <c r="E113" t="n">
+        <v>48739.4351</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.5900000000000318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>66</v>
+      </c>
+      <c r="B114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.1359309088651024</v>
+      </c>
+      <c r="D114" t="n">
+        <v>76549.60619999999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>15295.678</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.7900000000000205</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.5563999400000057</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1251941855814819</v>
+      </c>
+      <c r="D115" t="n">
+        <v>262979.5358</v>
+      </c>
+      <c r="E115" t="n">
+        <v>398571.1651</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" t="s">
+        <v>52</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.1062016570028106</v>
+      </c>
+      <c r="D116" t="n">
+        <v>76549.60619999999</v>
+      </c>
+      <c r="E116" t="n">
+        <v>48739.4351</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.7900000000000205</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.5900000000000318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.2001838484535993</v>
+      </c>
+      <c r="D117" t="n">
+        <v>76549.60619999999</v>
+      </c>
+      <c r="E117" t="n">
+        <v>398571.1651</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.7900000000000205</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.319855948309185</v>
+      </c>
+      <c r="D118" t="n">
+        <v>398571.1651</v>
+      </c>
+      <c r="E118" t="n">
+        <v>15295.678</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.5563999400000057</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>66</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.4304600275680763</v>
+      </c>
+      <c r="D119" t="n">
+        <v>48739.4351</v>
+      </c>
+      <c r="E119" t="n">
+        <v>15295.678</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.5900000000000318</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.5563999400000057</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0.563093624776144</v>
+      </c>
+      <c r="D120" t="n">
+        <v>398571.1651</v>
+      </c>
+      <c r="E120" t="n">
+        <v>48739.4351</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.5900000000000318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>66</v>
+      </c>
+      <c r="B121" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.8316301976887297</v>
+      </c>
+      <c r="D121" t="n">
+        <v>76549.60619999999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>262979.5358</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.7900000000000205</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.4602174842346791</v>
+      </c>
+      <c r="D123" t="n">
+        <v>262979.5358</v>
+      </c>
+      <c r="E123" t="n">
+        <v>15295.678</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.5533999300000119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>66</v>
+      </c>
+      <c r="B124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.1184006451276292</v>
+      </c>
+      <c r="D124" t="n">
+        <v>76549.60619999999</v>
+      </c>
+      <c r="E124" t="n">
+        <v>15295.678</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.8400000000000318</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.5533999300000119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.03489146784693713</v>
+      </c>
+      <c r="D125" t="n">
+        <v>262979.5358</v>
+      </c>
+      <c r="E125" t="n">
+        <v>399189.433</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.3499999999999659</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.08002953112108485</v>
+      </c>
+      <c r="D126" t="n">
+        <v>48739.4351</v>
+      </c>
+      <c r="E126" t="n">
+        <v>15295.678</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.629999999999995</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.5533999300000119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>68</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0.2760302889654936</v>
+      </c>
+      <c r="D127" t="n">
+        <v>399189.433</v>
+      </c>
+      <c r="E127" t="n">
+        <v>15295.678</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.3499999999999659</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.5533999300000119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-0.3083859289470721</v>
+      </c>
+      <c r="D128" t="n">
+        <v>76549.60619999999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>399189.433</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.8400000000000318</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.3499999999999659</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.4364288227311716</v>
+      </c>
+      <c r="D129" t="n">
+        <v>262979.5358</v>
+      </c>
+      <c r="E129" t="n">
+        <v>48739.4351</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.629999999999995</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.5076639824390543</v>
+      </c>
+      <c r="D130" t="n">
+        <v>48739.4351</v>
+      </c>
+      <c r="E130" t="n">
+        <v>399189.433</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.629999999999995</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.3499999999999659</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-0.7813247202679054</v>
+      </c>
+      <c r="D131" t="n">
+        <v>76549.60619999999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>48739.4351</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.8400000000000318</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.629999999999995</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>66</v>
+      </c>
+      <c r="B132" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-0.8493303083144218</v>
+      </c>
+      <c r="D132" t="n">
+        <v>76549.60619999999</v>
+      </c>
+      <c r="E132" t="n">
+        <v>262979.5358</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.8400000000000318</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.4678275113637371</v>
+      </c>
+      <c r="D134" t="n">
+        <v>262979.5358</v>
+      </c>
+      <c r="E134" t="n">
+        <v>15295.678</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.504399890000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>66</v>
+      </c>
+      <c r="B135" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.1435657283894599</v>
+      </c>
+      <c r="D135" t="n">
+        <v>76549.60619999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>15295.678</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.7800000000000296</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.504399890000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>66</v>
+      </c>
+      <c r="B136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.105743682560382</v>
+      </c>
+      <c r="D136" t="n">
+        <v>48739.4351</v>
+      </c>
+      <c r="E136" t="n">
+        <v>15295.678</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.504399890000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>44</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.002809303183065646</v>
+      </c>
+      <c r="D137" t="n">
+        <v>262979.5358</v>
+      </c>
+      <c r="E137" t="n">
+        <v>399189.433</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138" t="s">
+        <v>67</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-0.1544259713093156</v>
+      </c>
+      <c r="D138" t="n">
+        <v>399189.433</v>
+      </c>
+      <c r="E138" t="n">
+        <v>15295.678</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.504399890000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>66</v>
+      </c>
+      <c r="B139" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.322967443541424</v>
+      </c>
+      <c r="D139" t="n">
+        <v>76549.60619999999</v>
+      </c>
+      <c r="E139" t="n">
+        <v>399189.433</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.7800000000000296</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>66</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-0.3609661954499675</v>
+      </c>
+      <c r="D140" t="n">
+        <v>48739.4351</v>
+      </c>
+      <c r="E140" t="n">
+        <v>399189.433</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>44</v>
+      </c>
+      <c r="B141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.430539850064916</v>
+      </c>
+      <c r="D141" t="n">
+        <v>262979.5358</v>
+      </c>
+      <c r="E141" t="n">
+        <v>48739.4351</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>66</v>
+      </c>
+      <c r="B142" t="s">
+        <v>52</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-0.7577283872242887</v>
+      </c>
+      <c r="D142" t="n">
+        <v>76549.60619999999</v>
+      </c>
+      <c r="E142" t="n">
+        <v>48739.4351</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.7800000000000296</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>66</v>
+      </c>
+      <c r="B143" t="s">
+        <v>58</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-0.8316301976887297</v>
+      </c>
+      <c r="D143" t="n">
+        <v>76549.60619999999</v>
+      </c>
+      <c r="E143" t="n">
+        <v>262979.5358</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.7800000000000296</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>69</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.4678275113637371</v>
+      </c>
+      <c r="D145" t="n">
+        <v>262934.7308</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15302.5299</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.4293997300000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>70</v>
+      </c>
+      <c r="B146" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.3714417340414772</v>
+      </c>
+      <c r="D146" t="n">
+        <v>76547.39449999999</v>
+      </c>
+      <c r="E146" t="n">
+        <v>15302.5299</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.4293997300000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.005217490782574691</v>
+      </c>
+      <c r="D147" t="n">
+        <v>48845.2894</v>
+      </c>
+      <c r="E147" t="n">
+        <v>15302.5299</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.230000000000018</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.4293997300000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>69</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-0.03805233745074841</v>
+      </c>
+      <c r="D148" t="n">
+        <v>262934.7308</v>
+      </c>
+      <c r="E148" t="n">
+        <v>399602.8116</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.2799999999999727</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.1349280028287042</v>
+      </c>
+      <c r="D149" t="n">
+        <v>76547.39449999999</v>
+      </c>
+      <c r="E149" t="n">
+        <v>399602.8116</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.2799999999999727</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>71</v>
+      </c>
+      <c r="B150" t="s">
+        <v>67</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-0.1748763820729499</v>
+      </c>
+      <c r="D150" t="n">
+        <v>399602.8116</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15302.5299</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.2799999999999727</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.4293997300000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>69</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.386394557823125</v>
+      </c>
+      <c r="D151" t="n">
+        <v>262934.7308</v>
+      </c>
+      <c r="E151" t="n">
+        <v>48845.2894</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.230000000000018</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>70</v>
+      </c>
+      <c r="B152" t="s">
+        <v>52</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-0.4836075536827257</v>
+      </c>
+      <c r="D152" t="n">
+        <v>76547.39449999999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>48845.2894</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.230000000000018</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>48</v>
+      </c>
+      <c r="B153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-0.5135016268559919</v>
+      </c>
+      <c r="D153" t="n">
+        <v>48845.2894</v>
+      </c>
+      <c r="E153" t="n">
+        <v>399602.8116</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.230000000000018</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.2799999999999727</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" t="s">
+        <v>58</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.6015287595547315</v>
+      </c>
+      <c r="D154" t="n">
+        <v>76547.39449999999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>262934.7308</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>69</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.4678275113637371</v>
+      </c>
+      <c r="D156" t="n">
+        <v>262934.7308</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15302.5299</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.4293996800000173</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>70</v>
+      </c>
+      <c r="B157" t="s">
+        <v>54</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.3772847085453586</v>
+      </c>
+      <c r="D157" t="n">
+        <v>76547.39449999999</v>
+      </c>
+      <c r="E157" t="n">
+        <v>15302.5299</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.4293996800000173</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>69</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.03197575810412682</v>
+      </c>
+      <c r="D158" t="n">
+        <v>262934.7308</v>
+      </c>
+      <c r="E158" t="n">
+        <v>399602.8116</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0006225709723256107</v>
+      </c>
+      <c r="D159" t="n">
+        <v>48845.2894</v>
+      </c>
+      <c r="E159" t="n">
+        <v>15302.5299</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.189999999999998</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.4293996800000173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>70</v>
+      </c>
+      <c r="B160" t="s">
+        <v>53</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-0.05896353198431445</v>
+      </c>
+      <c r="D160" t="n">
+        <v>76547.39449999999</v>
+      </c>
+      <c r="E160" t="n">
+        <v>399602.8116</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>71</v>
+      </c>
+      <c r="B161" t="s">
+        <v>67</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-0.1661119203171113</v>
+      </c>
+      <c r="D161" t="n">
+        <v>399602.8116</v>
+      </c>
+      <c r="E161" t="n">
+        <v>15302.5299</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.4293996800000173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>69</v>
+      </c>
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-0.3805114509249207</v>
+      </c>
+      <c r="D162" t="n">
+        <v>262934.7308</v>
+      </c>
+      <c r="E162" t="n">
+        <v>48845.2894</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.189999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>48</v>
+      </c>
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.4372750744577223</v>
+      </c>
+      <c r="D163" t="n">
+        <v>48845.2894</v>
+      </c>
+      <c r="E163" t="n">
+        <v>399602.8116</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.189999999999998</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>70</v>
+      </c>
+      <c r="B164" t="s">
+        <v>52</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.4718259739365305</v>
+      </c>
+      <c r="D164" t="n">
+        <v>76547.39449999999</v>
+      </c>
+      <c r="E164" t="n">
+        <v>48845.2894</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.189999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>70</v>
+      </c>
+      <c r="B165" t="s">
+        <v>58</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.5956287226795175</v>
+      </c>
+      <c r="D165" t="n">
+        <v>76547.39449999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>262934.7308</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>69</v>
+      </c>
+      <c r="B167" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.466004683786178</v>
+      </c>
+      <c r="D167" t="n">
+        <v>262934.7308</v>
+      </c>
+      <c r="E167" t="n">
+        <v>15302.5299</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.4122199700000237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>72</v>
+      </c>
+      <c r="B168" t="s">
+        <v>54</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.37546022277112</v>
+      </c>
+      <c r="D168" t="n">
+        <v>76645.4182</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15302.5299</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.4122199700000237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>73</v>
+      </c>
+      <c r="B169" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.01631169315376101</v>
+      </c>
+      <c r="D169" t="n">
+        <v>48841.7867</v>
+      </c>
+      <c r="E169" t="n">
+        <v>15302.5299</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.029999999999973</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.4122199700000237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>69</v>
+      </c>
+      <c r="B170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.01156102650677694</v>
+      </c>
+      <c r="D170" t="n">
+        <v>262934.7308</v>
+      </c>
+      <c r="E170" t="n">
+        <v>399602.8116</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.02000000000003865</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>72</v>
+      </c>
+      <c r="B171" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.07939683453185453</v>
+      </c>
+      <c r="D171" t="n">
+        <v>76645.4182</v>
+      </c>
+      <c r="E171" t="n">
+        <v>399602.8116</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.02000000000003865</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>71</v>
+      </c>
+      <c r="B172" t="s">
+        <v>67</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.1504171132963532</v>
+      </c>
+      <c r="D172" t="n">
+        <v>399602.8116</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15302.5299</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.02000000000003865</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.4122199700000237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>69</v>
+      </c>
+      <c r="B173" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.3511062567218701</v>
+      </c>
+      <c r="D173" t="n">
+        <v>262934.7308</v>
+      </c>
+      <c r="E173" t="n">
+        <v>48841.7867</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1.029999999999973</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>73</v>
+      </c>
+      <c r="B174" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.440185133263146</v>
+      </c>
+      <c r="D174" t="n">
+        <v>48841.7867</v>
+      </c>
+      <c r="E174" t="n">
+        <v>399602.8116</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.029999999999973</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.02000000000003865</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>72</v>
+      </c>
+      <c r="B175" t="s">
+        <v>52</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.4423940303052901</v>
+      </c>
+      <c r="D175" t="n">
+        <v>76645.4182</v>
+      </c>
+      <c r="E175" t="n">
+        <v>48841.7867</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.029999999999973</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>72</v>
+      </c>
+      <c r="B176" t="s">
+        <v>58</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-0.5956287226795175</v>
+      </c>
+      <c r="D176" t="n">
+        <v>76645.4182</v>
+      </c>
+      <c r="E176" t="n">
+        <v>262934.7308</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.009999999999990905</v>
       </c>
     </row>
   </sheetData>

--- a/projet/arbitrage.xlsx
+++ b/projet/arbitrage.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BTC_USD" sheetId="1" r:id="rId1"/>
-    <sheet name="ETH_USD" sheetId="2" r:id="rId2"/>
-    <sheet name="ETH_BTC" sheetId="3" r:id="rId3"/>
-    <sheet name="LTC_USD" sheetId="4" r:id="rId4"/>
-    <sheet name="LTC_BTC" sheetId="5" r:id="rId5"/>
-    <sheet name="ETC_BTC" sheetId="6" r:id="rId6"/>
-    <sheet name="ETC_ETH" sheetId="7" r:id="rId7"/>
-    <sheet name="XMR_USD" sheetId="8" r:id="rId8"/>
-    <sheet name="XMR_BTC" sheetId="9" r:id="rId9"/>
-    <sheet name="DASH_USD" sheetId="10" r:id="rId10"/>
-    <sheet name="DASH_BTC" sheetId="11" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BTC_USD" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETH_USD" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETH_BTC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LTC_USD" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LTC_BTC" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETC_BTC" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETC_ETH" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XMR_USD" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XMR_BTC" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DASH_USD" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DASH_BTC" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -47,93 +47,193 @@
     <t>Spread B</t>
   </si>
   <si>
-    <t>2017-10-17 08:58:37</t>
+    <t>2017-10-26 17:56:34</t>
+  </si>
+  <si>
+    <t>BITF/OK</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:56:15</t>
+  </si>
+  <si>
+    <t>BITS/OK</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:56:11</t>
+  </si>
+  <si>
+    <t>GDAX/OK</t>
   </si>
   <si>
     <t>BITF/CXIO</t>
   </si>
   <si>
-    <t>2017-10-17 08:58:46</t>
+    <t>BITS/CXIO</t>
+  </si>
+  <si>
+    <t>GDAX/CXIO</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:57:34</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:58:15</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:58:12</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:59:34</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:59:11</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:59:15</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:01:34</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:01:11</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:01:15</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:02:34</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:03:11</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:03:15</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:56:12</t>
+  </si>
+  <si>
+    <t>BITF/KRKN</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:58:13</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:59:35</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:00:12</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:00:15</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:01:12</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:03:34</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:03:13</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:57:43</t>
+  </si>
+  <si>
+    <t>BTRX/CPIA</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:58:34</t>
+  </si>
+  <si>
+    <t>BITF/CPIA</t>
+  </si>
+  <si>
+    <t>GDAX/CPIA</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:03:25</t>
+  </si>
+  <si>
+    <t>PLNX/CPIA</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:00:34</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:02:12</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:02:15</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:03:14</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:57:09</t>
   </si>
   <si>
     <t>KRKN/CXIO</t>
   </si>
   <si>
-    <t>2017-10-17 08:58:27</t>
-  </si>
-  <si>
-    <t>GDAX/CXIO</t>
-  </si>
-  <si>
-    <t>2017-10-17 08:58:41</t>
-  </si>
-  <si>
-    <t>BITS/CXIO</t>
-  </si>
-  <si>
-    <t>2017-10-17 08:58:02</t>
-  </si>
-  <si>
-    <t>CPIA/CXIO</t>
-  </si>
-  <si>
-    <t>2017-10-17 08:58:53</t>
-  </si>
-  <si>
-    <t>LIQU/CPIA</t>
-  </si>
-  <si>
-    <t>LIQU/PLNX</t>
-  </si>
-  <si>
-    <t>2017-10-17 08:58:48</t>
-  </si>
-  <si>
-    <t>BTER/CPIA</t>
-  </si>
-  <si>
-    <t>LIQU/GDAX</t>
-  </si>
-  <si>
-    <t>2017-10-17 08:59:18</t>
-  </si>
-  <si>
-    <t>BTRX/CPIA</t>
-  </si>
-  <si>
-    <t>2017-10-17 08:58:40</t>
-  </si>
-  <si>
-    <t>CPIA/BTRX</t>
-  </si>
-  <si>
-    <t>CPIA/PLNX</t>
+    <t>2017-10-26 17:59:09</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:01:09</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:03:10</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:04:09</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:57:17</t>
+  </si>
+  <si>
+    <t>PLNX/LIQU</t>
+  </si>
+  <si>
+    <t>PLNX/CXIO</t>
+  </si>
+  <si>
+    <t>2017-10-26 17:59:16</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:01:16</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:03:18</t>
+  </si>
+  <si>
+    <t>2017-10-26 18:04:17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -149,17 +249,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -447,12 +546,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -477,18 +582,714 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5984432572978515</v>
+      </c>
+      <c r="D2" t="n">
+        <v>247669811.919312</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1141038.827952</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3000000000001819</v>
+      </c>
+      <c r="G2" t="n">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.510110941903779</v>
+      </c>
+      <c r="D3" t="n">
+        <v>66476944.705008</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1141038.827952</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6000000000003638</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4267117488585759</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70951387.977696</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1141038.827952</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2004472404478672</v>
+      </c>
+      <c r="D5" t="n">
+        <v>247669811.919312</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8196602.674176001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3000000000001819</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.668400000000474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1117612494088852</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66476944.705008</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8196602.674176001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6000000000003638</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.668400000000474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0280281325527461</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70951387.977696</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8196602.674176001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.668400000000474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.595098937111368</v>
+      </c>
+      <c r="D9" t="n">
+        <v>247680485.026992</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1140937.293072</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0999999999994543</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4476033302827157</v>
+      </c>
+      <c r="D10" t="n">
+        <v>66543046.300944</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1140937.293072</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.090000000000146</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4056530347830195</v>
+      </c>
+      <c r="D11" t="n">
+        <v>71052350.678784</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1140937.293072</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G11" t="n">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2641123612342598</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247680485.026992</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8190430.548</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0999999999994543</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.69210000000021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1161256411371557</v>
+      </c>
+      <c r="D13" t="n">
+        <v>66543046.300944</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8190430.548</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.090000000000146</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.69210000000021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.07403566455014876</v>
+      </c>
+      <c r="D14" t="n">
+        <v>71052350.678784</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8190430.548</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.69210000000021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5155239630590612</v>
+      </c>
+      <c r="D16" t="n">
+        <v>247960013.537952</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1140937.293072</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G16" t="n">
+        <v>29.89000000000033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.424936508157717</v>
+      </c>
+      <c r="D17" t="n">
+        <v>71079407.33524801</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1140937.293072</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G17" t="n">
+        <v>29.89000000000033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4222632130435818</v>
+      </c>
+      <c r="D18" t="n">
+        <v>66571986.72806401</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1140937.293072</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.190000000000509</v>
+      </c>
+      <c r="G18" t="n">
+        <v>29.89000000000033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1816416480946122</v>
+      </c>
+      <c r="D19" t="n">
+        <v>247960013.537952</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8194354.572480001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.105499999999665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.09075017039137914</v>
+      </c>
+      <c r="D20" t="n">
+        <v>71079407.33524801</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8194354.572480001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.009999999999308784</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.105499999999665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.08806790336527484</v>
+      </c>
+      <c r="D21" t="n">
+        <v>66571986.72806401</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8194354.572480001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.190000000000509</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.105499999999665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5285946504260837</v>
+      </c>
+      <c r="D23" t="n">
+        <v>248066191.768428</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1143303.066972</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9.100000000000364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4328402685062063</v>
+      </c>
+      <c r="D24" t="n">
+        <v>71076812.563152</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1143303.066972</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9.100000000000364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3795484497908591</v>
+      </c>
+      <c r="D25" t="n">
+        <v>66600424.785312</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1143303.066972</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.719999999999345</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9.100000000000364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2149460749995063</v>
+      </c>
+      <c r="D26" t="n">
+        <v>248066191.768428</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8204863.855716</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.199899999999616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.11888976484835</v>
+      </c>
+      <c r="D27" t="n">
+        <v>71076812.563152</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8204863.855716</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.199899999999616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.06542990886678325</v>
+      </c>
+      <c r="D28" t="n">
+        <v>66600424.785312</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8204863.855716</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.719999999999345</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.199899999999616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5511755165735184</v>
+      </c>
+      <c r="D30" t="n">
+        <v>248035426.185888</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1137717.0387</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6000000000003638</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8.239999999999782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.4470789074557508</v>
+      </c>
+      <c r="D31" t="n">
+        <v>70996981.59813601</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1137717.0387</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8.239999999999782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3635613562036042</v>
+      </c>
+      <c r="D32" t="n">
+        <v>66640323.53602801</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1137717.0387</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.529999999999745</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.239999999999782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2233295419668127</v>
+      </c>
+      <c r="D33" t="n">
+        <v>248035426.185888</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8200833.286536001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6000000000003638</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.099900000000162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.11888976484835</v>
+      </c>
+      <c r="D34" t="n">
+        <v>70996981.59813601</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8200833.286536001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01000000000021828</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.099900000000162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.03509688713428446</v>
+      </c>
+      <c r="D35" t="n">
+        <v>66640323.53602801</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8200833.286536001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.529999999999745</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.099900000000162</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -513,18 +1314,139 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.510372662940613</v>
+      </c>
+      <c r="D2" t="n">
+        <v>213798.3210474</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30858.5813997</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9900000000000091</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2103000000000179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.520776863159335</v>
+      </c>
+      <c r="D4" t="n">
+        <v>214153.4046546</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30890.1504474</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9599999999999795</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2103000000000179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.520776863159335</v>
+      </c>
+      <c r="D6" t="n">
+        <v>214665.9402546</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30890.1504474</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9599999999999795</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2103000000000179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.538117196857177</v>
+      </c>
+      <c r="D8" t="n">
+        <v>214665.9402546</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30890.1504474</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.910000000000025</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.050200000000018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.55198946381546</v>
+      </c>
+      <c r="D10" t="n">
+        <v>213754.4796279</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30884.3423844</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8700000000000045</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.849899999999991</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -549,18 +1471,254 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2532931910470916</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4331182.4845875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>74905.10762220001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.000000000167534e-08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0002857100000000015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.03803005170005012</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4331182.4845875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19802.7106023</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.000000000167534e-08</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0005991999999999942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2532931910470916</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4348245.907056601</v>
+      </c>
+      <c r="E5" t="n">
+        <v>75219.012801</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.199999999992873e-07</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0002857100000000015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.03803005170005012</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4348245.907056601</v>
+      </c>
+      <c r="E6" t="n">
+        <v>19822.9692366</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.199999999992873e-07</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0005992399999999939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2532931910470916</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4344752.6352522</v>
+      </c>
+      <c r="E8" t="n">
+        <v>75219.012801</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.199999999992873e-07</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0002857100000000015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03803005170005012</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4344752.6352522</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19822.9692366</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.199999999992873e-07</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0005992099999999959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2532931910470916</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4346094.0832884</v>
+      </c>
+      <c r="E11" t="n">
+        <v>75219.012801</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0001048800000000016</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0002857100000000015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03803005170005012</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4346094.0832884</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19822.9692366</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0001048800000000016</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0005991799999999978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2532931910470916</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4331760.353986801</v>
+      </c>
+      <c r="E14" t="n">
+        <v>74899.6367115</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0001049400000000048</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0002857100000000015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03803005170005012</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4331760.353986801</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19683.5413392</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0001049400000000048</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0005990299999999935</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -590,105 +1748,778 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0.5282744424660537</v>
-      </c>
-      <c r="D2">
-        <v>165825.3629</v>
-      </c>
-      <c r="E2">
-        <v>6052.9353</v>
-      </c>
-      <c r="F2">
-        <v>0.1399999999999864</v>
-      </c>
-      <c r="G2">
-        <v>1.325288420000049</v>
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.526660086008042</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19567748.4633472</v>
+      </c>
+      <c r="E2" t="n">
+        <v>712549.4242161999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6306679699999904</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0.4861215787736624</v>
-      </c>
-      <c r="D3">
-        <v>29301.0671</v>
-      </c>
-      <c r="E3">
-        <v>6052.9353</v>
-      </c>
-      <c r="F3">
-        <v>0.3600000000000136</v>
-      </c>
-      <c r="G3">
-        <v>1.325288420000049</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4765358320195713</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19567748.4633472</v>
+      </c>
+      <c r="E3" t="n">
+        <v>77442.62276319999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.980000000000018</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>0.4635036645527406</v>
-      </c>
-      <c r="D4">
-        <v>102812.1417</v>
-      </c>
-      <c r="E4">
-        <v>6052.9353</v>
-      </c>
-      <c r="F4">
-        <v>0.2200000000000273</v>
-      </c>
-      <c r="G4">
-        <v>1.325288420000049</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.256340915506722</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14523686.9444264</v>
+      </c>
+      <c r="E4" t="n">
+        <v>712549.4242161999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6306679699999904</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2060804486719561</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14523686.9444264</v>
+      </c>
+      <c r="E5" t="n">
+        <v>77442.62276319999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1418478564630614</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1519937.6721614</v>
+      </c>
+      <c r="E6" t="n">
+        <v>712549.4242161999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5300000000000296</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6306679699999904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.09152969699249593</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1519937.6721614</v>
+      </c>
+      <c r="E7" t="n">
+        <v>77442.62276319999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5300000000000296</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04145028050666684</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19567748.4633472</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3343900.5962858</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.04000000000002046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="n">
+        <v>0.5435075519500241</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19577048.0211932</v>
+      </c>
+      <c r="E10" t="n">
+        <v>711825.9107134</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6245604499999899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4933899326407276</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19577048.0211932</v>
+      </c>
+      <c r="E11" t="n">
+        <v>77442.62276319999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2563427746226682</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14527179.529543</v>
+      </c>
+      <c r="E12" t="n">
+        <v>711825.9107134</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6245604499999899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>0.288957427592616</v>
-      </c>
-      <c r="D5">
-        <v>18542.0581</v>
-      </c>
-      <c r="E5">
-        <v>6052.9353</v>
-      </c>
-      <c r="F5">
-        <v>0.8499999999999659</v>
-      </c>
-      <c r="G5">
-        <v>1.325288420000049</v>
+      <c r="C13" t="n">
+        <v>0.2159334604192789</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1530132.6054472</v>
+      </c>
+      <c r="E13" t="n">
+        <v>711825.9107134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3199999999999932</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6245604499999899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2060804486719561</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14527179.529543</v>
+      </c>
+      <c r="E14" t="n">
+        <v>77442.62276319999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1656507716086273</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1530132.6054472</v>
+      </c>
+      <c r="E15" t="n">
+        <v>77442.62276319999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3199999999999932</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.007902495364876107</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19577048.0211932</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3351679.0348754</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1399999999999864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.526660292757676</v>
+      </c>
+      <c r="D18" t="n">
+        <v>19574499.616644</v>
+      </c>
+      <c r="E18" t="n">
+        <v>711770.8013633001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5683599799999683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4765358320195713</v>
+      </c>
+      <c r="D19" t="n">
+        <v>19574499.616644</v>
+      </c>
+      <c r="E19" t="n">
+        <v>77436.6271784</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2563411228181988</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14548476.3182423</v>
+      </c>
+      <c r="E20" t="n">
+        <v>711770.8013633001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5683599799999683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2060804486719561</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14548476.3182423</v>
+      </c>
+      <c r="E21" t="n">
+        <v>77436.6271784</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.07449920589152623</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1530033.1251065</v>
+      </c>
+      <c r="E22" t="n">
+        <v>711770.8013633001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7300000000000182</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5683599799999683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02414690188694798</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1530033.1251065</v>
+      </c>
+      <c r="E23" t="n">
+        <v>77436.6271784</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7300000000000182</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.54350592157168</v>
+      </c>
+      <c r="D25" t="n">
+        <v>19493708.5101199</v>
+      </c>
+      <c r="E25" t="n">
+        <v>711938.5208747002</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5605570900000316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4933899326407276</v>
+      </c>
+      <c r="D26" t="n">
+        <v>19493708.5101199</v>
+      </c>
+      <c r="E26" t="n">
+        <v>77436.6271784</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2563411395368663</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14553613.8645296</v>
+      </c>
+      <c r="E27" t="n">
+        <v>711938.5208747002</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5605570900000316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2060804486719561</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14553613.8645296</v>
+      </c>
+      <c r="E28" t="n">
+        <v>77436.6271784</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1149085375064876</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1530003.4192065</v>
+      </c>
+      <c r="E29" t="n">
+        <v>711938.5208747002</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6100000000000136</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5605570900000316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.06457657895027676</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1530003.4192065</v>
+      </c>
+      <c r="E30" t="n">
+        <v>77436.6271784</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6100000000000136</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.03146410315201598</v>
+      </c>
+      <c r="D31" t="n">
+        <v>19493708.5101199</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3348114.8863309</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04000000000002046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4997074234020856</v>
+      </c>
+      <c r="D33" t="n">
+        <v>19508567.1636527</v>
+      </c>
+      <c r="E33" t="n">
+        <v>711603.0818519</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1399999999999864</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5560540000000174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4495692710257058</v>
+      </c>
+      <c r="D34" t="n">
+        <v>19508567.1636527</v>
+      </c>
+      <c r="E34" t="n">
+        <v>77436.6271784</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1399999999999864</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2563412331614039</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14571439.0977659</v>
+      </c>
+      <c r="E35" t="n">
+        <v>711603.0818519</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.5560540000000174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.2060804486719561</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14571439.0977659</v>
+      </c>
+      <c r="E36" t="n">
+        <v>77436.6271784</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.980000000000018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1149086312637812</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1529965.9897725</v>
+      </c>
+      <c r="E37" t="n">
+        <v>711603.0818519</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6100000000000136</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.5560540000000174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.06457657895027676</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1529965.9897725</v>
+      </c>
+      <c r="E38" t="n">
+        <v>77436.6271784</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.6100000000000136</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.980000000000018</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -713,41 +2544,139 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>0.07521874064027038</v>
-      </c>
-      <c r="D2">
-        <v>632.4378</v>
-      </c>
-      <c r="E2">
-        <v>2275.6187</v>
-      </c>
-      <c r="F2">
-        <v>0.0001514599999999991</v>
-      </c>
-      <c r="G2">
-        <v>0.0003543499999999963</v>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.19246384681913</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13571948.2163404</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278364.8239212</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.401999999999572e-05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.000000000001e-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02075665238641397</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15674714.8139164</v>
+      </c>
+      <c r="E4" t="n">
+        <v>278364.8239212</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.000000000001e-06</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.000000000001e-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01010680021721833</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3848785.4919941</v>
+      </c>
+      <c r="E6" t="n">
+        <v>278374.7315475</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.000000000000306e-05</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.000000000001e-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1002634405358161</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15309440.862359</v>
+      </c>
+      <c r="E8" t="n">
+        <v>278374.7315475</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.390999999999505e-05</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.000000000001e-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.006635290331660483</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15673360.3276663</v>
+      </c>
+      <c r="E9" t="n">
+        <v>278374.7315475</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.000000000001e-06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.000000000001e-06</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -772,18 +2701,369 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5013374845350517</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8419509.2313843</v>
+      </c>
+      <c r="E2" t="n">
+        <v>357911.88362104</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03699999999999903</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.519999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.154116914076155</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10018503.38675018</v>
+      </c>
+      <c r="E3" t="n">
+        <v>357911.88362104</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.519999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06514357324037497</v>
+      </c>
+      <c r="D4" t="n">
+        <v>805747.67633052</v>
+      </c>
+      <c r="E4" t="n">
+        <v>357911.88362104</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2099999999999937</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.519999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6386266508921509</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8417436.3312109</v>
+      </c>
+      <c r="E6" t="n">
+        <v>357782.28868984</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5300000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1364262898582401</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10022074.5539474</v>
+      </c>
+      <c r="E7" t="n">
+        <v>357782.28868984</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5300000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04743718478772662</v>
+      </c>
+      <c r="D8" t="n">
+        <v>807997.58833052</v>
+      </c>
+      <c r="E8" t="n">
+        <v>357782.28868984</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2199999999999989</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5300000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.546031822681519</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8416361.47943295</v>
+      </c>
+      <c r="E10" t="n">
+        <v>357866.3657691</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0009999999999976694</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5300000000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1364262898582401</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10017359.91406215</v>
+      </c>
+      <c r="E11" t="n">
+        <v>357866.3657691</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5300000000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04743718478772662</v>
+      </c>
+      <c r="D12" t="n">
+        <v>808093.8335853</v>
+      </c>
+      <c r="E12" t="n">
+        <v>357866.3657691</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2199999999999989</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5300000000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5262624451737842</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8418809.962170899</v>
+      </c>
+      <c r="E14" t="n">
+        <v>357193.5169455</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0009999999999976694</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.519999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.154116914076155</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10031275.8428724</v>
+      </c>
+      <c r="E15" t="n">
+        <v>357193.5169455</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.519999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01175956873889437</v>
+      </c>
+      <c r="D16" t="n">
+        <v>808093.8335853</v>
+      </c>
+      <c r="E16" t="n">
+        <v>357193.5169455</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.519999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4959964215410411</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8417914.8968214</v>
+      </c>
+      <c r="E18" t="n">
+        <v>357193.5169455</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0009999999999976694</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.519999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.154116914076155</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10034025.5740833</v>
+      </c>
+      <c r="E19" t="n">
+        <v>357193.5169455</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.519999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02955423690605036</v>
+      </c>
+      <c r="D20" t="n">
+        <v>808093.8335853</v>
+      </c>
+      <c r="E20" t="n">
+        <v>357193.5169455</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2100000000000009</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.519999999999996</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -808,110 +3088,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0.1132850769115077</v>
-      </c>
-      <c r="D2">
-        <v>1641.4934</v>
-      </c>
-      <c r="E2">
-        <v>1439.1086</v>
-      </c>
-      <c r="F2">
-        <v>7.780999999999934e-05</v>
-      </c>
-      <c r="G2">
-        <v>0.0002458900000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0.07385729832283436</v>
-      </c>
-      <c r="D3">
-        <v>1641.4934</v>
-      </c>
-      <c r="E3">
-        <v>105573.6431</v>
-      </c>
-      <c r="F3">
-        <v>7.780999999999934e-05</v>
-      </c>
-      <c r="G3">
-        <v>5.109999999999143e-06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>0.01005971482974474</v>
-      </c>
-      <c r="D4">
-        <v>92.2752</v>
-      </c>
-      <c r="E4">
-        <v>1439.1086</v>
-      </c>
-      <c r="F4">
-        <v>0.0009699999999999986</v>
-      </c>
-      <c r="G4">
-        <v>0.0002458900000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>0.006940427993073437</v>
-      </c>
-      <c r="D5">
-        <v>1641.4934</v>
-      </c>
-      <c r="E5">
-        <v>21350.1602</v>
-      </c>
-      <c r="F5">
-        <v>7.780999999999934e-05</v>
-      </c>
-      <c r="G5">
-        <v>9.999999999999593e-06</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -936,41 +3130,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>0.1724767698123342</v>
-      </c>
-      <c r="D2">
-        <v>89932.4243</v>
-      </c>
-      <c r="E2">
-        <v>501.6867</v>
-      </c>
-      <c r="F2">
-        <v>1.60999999999998e-06</v>
-      </c>
-      <c r="G2">
-        <v>1.527999999999989e-05</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -996,17 +3173,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1032,17 +3215,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1067,53 +3256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>0.06564029120418381</v>
-      </c>
-      <c r="D2">
-        <v>31.6383</v>
-      </c>
-      <c r="E2">
-        <v>14033.7218</v>
-      </c>
-      <c r="F2">
-        <v>0.0001241699999999998</v>
-      </c>
-      <c r="G2">
-        <v>7.259000000000085e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>0.01816580435026404</v>
-      </c>
-      <c r="D3">
-        <v>31.6383</v>
-      </c>
-      <c r="E3">
-        <v>30423.9357</v>
-      </c>
-      <c r="F3">
-        <v>0.0001241699999999998</v>
-      </c>
-      <c r="G3">
-        <v>4.764999999999978e-05</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>